--- a/data/hotels_by_city/Houston/Houston_shard_534.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_534.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="482">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d223172-Reviews-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Red-Roof-Inn-PLUS-Houston-Energy-Corridor.h40431.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1322 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r581048994-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223172</t>
+  </si>
+  <si>
+    <t>581048994</t>
+  </si>
+  <si>
+    <t>05/18/2018</t>
+  </si>
+  <si>
+    <t>Fantastic stay</t>
+  </si>
+  <si>
+    <t>I had a wonderful stay. As soon as I entered the building you can smell the coffee which was a good thing because I had a long drive and it woke me up. The staff was friendly, with smiling faces. Ms latrina was so helpful. Room was clean ,cold and smelled Pleasant. Thank you Red Roof for such a great day</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r580939066-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>580939066</t>
+  </si>
+  <si>
+    <t>05/17/2018</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>My family and I are frequent guests and always have wonderful stays. The rooms are spacious, comfortable, and clean - perfect for a family of four. Renovations and change of management have improved this property even more. Thank you to the staff for all of your hard work, we cannot wait to see you next time!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Sophia W, General Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded May 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2018</t>
+  </si>
+  <si>
+    <t>My family and I are frequent guests and always have wonderful stays. The rooms are spacious, comfortable, and clean - perfect for a family of four. Renovations and change of management have improved this property even more. Thank you to the staff for all of your hard work, we cannot wait to see you next time!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r578846031-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>578846031</t>
+  </si>
+  <si>
+    <t>05/08/2018</t>
+  </si>
+  <si>
+    <t>Good times</t>
+  </si>
+  <si>
+    <t>The room was nice and clean.The staff was friendly and helpful.I will definitely stay here again.This location is away from the congestion and lower class clientele that surround most other hotels in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Sophia W, General Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded May 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2018</t>
+  </si>
+  <si>
+    <t>The room was nice and clean.The staff was friendly and helpful.I will definitely stay here again.This location is away from the congestion and lower class clientele that surround most other hotels in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r566174494-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566174494</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>Feels like home</t>
+  </si>
+  <si>
+    <t>I am a Harvey victim and I have been staying here for 6 months.  The employees here are wonderful from the General Manager, the front desk, maintenance and housekeepers. I have always been greeted every day with a smile and I am asked if there is anything I need. Everyone here are attentive,caring and helpful.  The rooms are spacious with comfortable beds.  The hotel has been going through some remodeling and there has been many upgrades and improvements.  This hotel is pet friendly and have a well maintained grass filled grounds that surrounds the hotel.  The parking spaces are spacious so larger vehicles can fit comfortably.  The hotel is very clean.  Housekeepers here take great pride in their jobs daily and that is evident throughout the hotel.  The employees here have a can do attitude and I do not believe the word no is in their vocabulary.  The hotel is located near the freeway very close to restaurants and shopping, but still remains in a quiet location with little noise. I will definitely stay here again and again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Sophia W, General Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded April 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2018</t>
+  </si>
+  <si>
+    <t>I am a Harvey victim and I have been staying here for 6 months.  The employees here are wonderful from the General Manager, the front desk, maintenance and housekeepers. I have always been greeted every day with a smile and I am asked if there is anything I need. Everyone here are attentive,caring and helpful.  The rooms are spacious with comfortable beds.  The hotel has been going through some remodeling and there has been many upgrades and improvements.  This hotel is pet friendly and have a well maintained grass filled grounds that surrounds the hotel.  The parking spaces are spacious so larger vehicles can fit comfortably.  The hotel is very clean.  Housekeepers here take great pride in their jobs daily and that is evident throughout the hotel.  The employees here have a can do attitude and I do not believe the word no is in their vocabulary.  The hotel is located near the freeway very close to restaurants and shopping, but still remains in a quiet location with little noise. I will definitely stay here again and again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r489488529-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489488529</t>
+  </si>
+  <si>
+    <t>05/31/2017</t>
+  </si>
+  <si>
+    <t>Awesome Stay</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised very nice and clean.Really did not expect much from an economy hotel.First thing I notice was the fresh smell in lobby and as I entered my room was impeccable.Will definitely be my hotel of choice when coding Houston. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Sophia W, General Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised very nice and clean.Really did not expect much from an economy hotel.First thing I notice was the fresh smell in lobby and as I entered my room was impeccable.Will definitely be my hotel of choice when coding Houston. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r487784219-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>487784219</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>Inexpensive but still nice</t>
+  </si>
+  <si>
+    <t>We only stayed for one night so consider this review based on a limiited experience.  Rooms were clean.  The place is old but appears to have been given a face lift.  The reception was courteous ane the room and, more important, the bed and linens were clean.  It worked well for us since we got their late evening and departed the next morning so a clean place and a clean bed and linen were all we desired.  Amenities are within driving distance (10 minutes or less.  Our room had a view of the freeway which was a cause for some concern but it did not bother us.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r481900416-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>481900416</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
+  </si>
+  <si>
+    <t>Family time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family time usually gets complicated when it comes to choosing a place to stay but luckily we found red roof plus cause I was amazed on how clean and neat there lobby was.I had no trouble with maintenance the whole week that I stayed there. The grab and go breakfast in the morning was always warm and there was always coffee!!! The housekeepers did an amazing job with my room. I can say it's one of the best hotels I stayed at inHouston. I can recommend this hotel to anyone. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r481842683-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>481842683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business out of Town </t>
+  </si>
+  <si>
+    <t>Business out of town can be stressing, but my stay at the hotel made it comfortable. Coffee was served at all times also a grab and go breakfast was helpful every morning. The rooms were spotless and they smelled great. I was amazed on how my bed was made and how well the restroom was cleaned, It made my trip much easier.If I get the chance to come back I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r481608954-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>481608954</t>
+  </si>
+  <si>
+    <t>05/04/2017</t>
+  </si>
+  <si>
+    <t>Corporate Trip</t>
+  </si>
+  <si>
+    <t>I had great stay. My room was clean and it smelled awesome from the lobby all the way to the room I stayed in.They also have hot coffee witch was utilized for me since I had to work day and night. I will definitely be going back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r474811883-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>474811883</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>I would recommend !</t>
+  </si>
+  <si>
+    <t>I would recommend this to anyone staying out. This is a very professional environment where the staff is friendly. The manager is also very professional and helps you with your stay at any time. I would recommend !</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r474806097-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>474806097</t>
+  </si>
+  <si>
+    <t>A vacation well spend</t>
+  </si>
+  <si>
+    <t>The room I was placed in was perfect for my family and I. A room filled with enough space for all four of us. My vacation was perfect everything came out as planned thanks to the friendly staff at the hotel. Would recommend to anybody.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r474804932-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>474804932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Experience </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A well spend night thanks to the staff and manager that made my stay a great experience. I would more than gladly recommend to any guest with plans of vacations, business, etc. Thankful for the first time experience well spend. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r467918249-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467918249</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>Great customer service, but kinda ghetto</t>
+  </si>
+  <si>
+    <t>The front desk staff is wonderful.  We needed to buy laundry detergent for the washer, and the front desk lady gave us two pods free of charge.  The rooms are clean and updated.  However, as it is with every cheap hotel, there were some questionable guests staying there.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r467703482-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467703482</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>Selective</t>
+  </si>
+  <si>
+    <t>Me and my husband are in town on business we were put in an outside facing room we requested a upstairs room... really dirty bath tub &amp; remote to tv was broken no towels and ice bucket was placed on the bathroom back of toilet. We asked to move rooms the front desk attendant asked me to follow her to show them what was wrong  she prompted the housekeeper to come alone then she explained to my husband and i that the tub was stained but was cleaned i guess the hair and dirt was a stain  she put us in the wrong room to begin with when she moved is we ran into another brown couple said that she did them the same be careful here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Natty R, Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Me and my husband are in town on business we were put in an outside facing room we requested a upstairs room... really dirty bath tub &amp; remote to tv was broken no towels and ice bucket was placed on the bathroom back of toilet. We asked to move rooms the front desk attendant asked me to follow her to show them what was wrong  she prompted the housekeeper to come alone then she explained to my husband and i that the tub was stained but was cleaned i guess the hair and dirt was a stain  she put us in the wrong room to begin with when she moved is we ran into another brown couple said that she did them the same be careful here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r463093607-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>463093607</t>
+  </si>
+  <si>
+    <t>02/26/2017</t>
+  </si>
+  <si>
+    <t>Clean, &amp;friendly</t>
+  </si>
+  <si>
+    <t>Clean, comfortable beds, good access off &amp; on freeway. The only problem was TV kept shutting off close to end of shows we were trying to keep up with, when we called they did send someone up a short time later but season ending shows ending missed. At  checkout we mentioned it and they said they had record of it and were sorry it happened, and they gave us a discount on our room because of this.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r460921968-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460921968</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t>Super Bowl Weekend</t>
+  </si>
+  <si>
+    <t>Had a great stay! Nice room and fantastic staff! One lady at the desk had so people checking in and was alone but was very patient but checked in guests in front of me very quickly. This location was very easy to find. The amenities listed online were accurate. Omg! My bed was surprisingly comfy. I would definitely stay again! MoreShow less</t>
+  </si>
+  <si>
+    <t>Natty R, Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded February 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2017</t>
+  </si>
+  <si>
+    <t>Had a great stay! Nice room and fantastic staff! One lady at the desk had so people checking in and was alone but was very patient but checked in guests in front of me very quickly. This location was very easy to find. The amenities listed online were accurate. Omg! My bed was surprisingly comfy. I would definitely stay again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r460799437-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460799437</t>
+  </si>
+  <si>
+    <t>02/17/2017</t>
+  </si>
+  <si>
+    <t>Super Bowl at Red Roof!!!</t>
+  </si>
+  <si>
+    <t>Everything was great and being able to stay in such a great environment you guys create was wonderful... Your staff was awesome... Latrina always went above and beyond to help in whatever way possible to make my stay more pleasantMoreShow less</t>
+  </si>
+  <si>
+    <t>Everything was great and being able to stay in such a great environment you guys create was wonderful... Your staff was awesome... Latrina always went above and beyond to help in whatever way possible to make my stay more pleasantMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r460792901-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460792901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretty cool for an economy hotel. </t>
+  </si>
+  <si>
+    <t>Checking in was a breeze, the room was clean and spacious, the wifi pretty fast, good for business. A lady named Trina at the front desk made sure that my reservation was in order, and I really appreciated the fact that she knew her stuff. Going back for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>Checking in was a breeze, the room was clean and spacious, the wifi pretty fast, good for business. A lady named Trina at the front desk made sure that my reservation was in order, and I really appreciated the fact that she knew her stuff. Going back for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r460519352-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460519352</t>
+  </si>
+  <si>
+    <t>02/16/2017</t>
+  </si>
+  <si>
+    <t>Road trip just a bed</t>
+  </si>
+  <si>
+    <t>Not impressed. Room was dirty.   More like a motel. Price was ok for what you get it was close to interstate and restaurants. Check in was not very friendly. Asked for another blanket was told to come get it at front desk. No service</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r459876867-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>459876867</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Bowl </t>
+  </si>
+  <si>
+    <t>Made a reservation for two rooms for the super bowl a staff member gave me a call early in the morning before we got there that day to ask if we needed the rooms close to each other wow that was great because we had our kids and our dog I was so happy that they would take the time to care about making our stay convenient and gave us a first floor too, rooms were nice and quiet even outside while walking my dog I felt so safe. Thanks staff for for going the extra mile and making our stay so pleasant even though Falcons lost but we had a great stay at  the Redroof Plus. MoreShow less</t>
+  </si>
+  <si>
+    <t>Made a reservation for two rooms for the super bowl a staff member gave me a call early in the morning before we got there that day to ask if we needed the rooms close to each other wow that was great because we had our kids and our dog I was so happy that they would take the time to care about making our stay convenient and gave us a first floor too, rooms were nice and quiet even outside while walking my dog I felt so safe. Thanks staff for for going the extra mile and making our stay so pleasant even though Falcons lost but we had a great stay at  the Redroof Plus. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r459868523-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>459868523</t>
+  </si>
+  <si>
+    <t>In town business</t>
+  </si>
+  <si>
+    <t>my company booked us a room at Red Roof Plus Energy Corridor and upon arrival my partners and I were greeted at the reception by very friendly staff who made us feel welcome, our rooms looked excellent very clean beds were very nicely made and comfortable we all slept great we all agreed it was a very convenient location close to our office and in the morning grabbing something to go before work was wonderful this is our new favorite location to stay from now on for my business partners and me thank the staff members for making us feel at home.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r439189930-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>439189930</t>
+  </si>
+  <si>
+    <t>11/21/2016</t>
+  </si>
+  <si>
+    <t>Great rooms but a couple of issues</t>
+  </si>
+  <si>
+    <t>Pulled up to this hotel and it gave a great first impression - lovely renovated reception and room.  However I think our room had been unoccupied for some time yet the air con was left on. Everything in the room was damp and there were puddles of water on the floor.  In drying these up we discovered that the floor wasnt amazingly clean.  No drama to us and the damp came right after the first night.  We had a room right at the very front of the hotel which is practically on top of the freeway.  So we found it very, very noisy all night.  Would ask for a room at the back if we were to stay again.Breakfast was the other issue.  Completely non-exisitant on the three mornings we headed to reception to see what was on offer.  A broken juice machine and that was it....visited at a different time each morning to see if we had just been too early or too late.On the positive side, the location was good - easy freeway access, restaurants/Walmart nearby and it felt very safe and secure.  Plus the price was great!Would stay again but ask for a room away from the road and not count on breakfast being provided.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Pulled up to this hotel and it gave a great first impression - lovely renovated reception and room.  However I think our room had been unoccupied for some time yet the air con was left on. Everything in the room was damp and there were puddles of water on the floor.  In drying these up we discovered that the floor wasnt amazingly clean.  No drama to us and the damp came right after the first night.  We had a room right at the very front of the hotel which is practically on top of the freeway.  So we found it very, very noisy all night.  Would ask for a room at the back if we were to stay again.Breakfast was the other issue.  Completely non-exisitant on the three mornings we headed to reception to see what was on offer.  A broken juice machine and that was it....visited at a different time each morning to see if we had just been too early or too late.On the positive side, the location was good - easy freeway access, restaurants/Walmart nearby and it felt very safe and secure.  Plus the price was great!Would stay again but ask for a room away from the road and not count on breakfast being provided.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r438360143-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>438360143</t>
+  </si>
+  <si>
+    <t>11/18/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great service </t>
+  </si>
+  <si>
+    <t>Amazing hotel! The staff were extremely welcoming and friendly . The room are extremely clean and big and they are provided by everything you need during your stay . I recommend a visit to the hotel ! They make you feel like home ;) MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Natty R, General Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded November 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2016</t>
+  </si>
+  <si>
+    <t>Amazing hotel! The staff were extremely welcoming and friendly . The room are extremely clean and big and they are provided by everything you need during your stay . I recommend a visit to the hotel ! They make you feel like home ;) More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r437611570-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437611570</t>
+  </si>
+  <si>
+    <t>11/15/2016</t>
+  </si>
+  <si>
+    <t>One week stay while home being remodeled</t>
+  </si>
+  <si>
+    <t>Since we were staying a week we took the cheaper weekly rate. We were not informed upon check-in that with the weekly rate we would only get cleaning service M,W,F. One day when maid came in she made up the bed (no clean sheets) but did not empty trash can by the door nor did she sweep the room. The breakfast was bad. Mon &amp; Tues they had no lids for the coffee cups. No fruit 2 days. The water tasted really bad. No fruit juice.When I informed the front desk manage she did give us a comp day for the problems.MoreShow less</t>
+  </si>
+  <si>
+    <t>Natty R, General Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded November 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2016</t>
+  </si>
+  <si>
+    <t>Since we were staying a week we took the cheaper weekly rate. We were not informed upon check-in that with the weekly rate we would only get cleaning service M,W,F. One day when maid came in she made up the bed (no clean sheets) but did not empty trash can by the door nor did she sweep the room. The breakfast was bad. Mon &amp; Tues they had no lids for the coffee cups. No fruit 2 days. The water tasted really bad. No fruit juice.When I informed the front desk manage she did give us a comp day for the problems.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r434236630-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>434236630</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>The room was great, really clean. Coffee in the lobby at all times which I utilized throughout my stay. Breakfast was kept short and sweet with danish, fruit and coffee. Definitely will be going back.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was great, really clean. Coffee in the lobby at all times which I utilized throughout my stay. Breakfast was kept short and sweet with danish, fruit and coffee. Definitely will be going back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r433810230-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>433810230</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing </t>
+  </si>
+  <si>
+    <t>Great Value for your buck! As soon as i arrived i was greeted by front desk. Hotel is clean, nice renovated rooms, staff is friendly and you can't beat the price. Will definitely recommend to friends and family.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Great Value for your buck! As soon as i arrived i was greeted by front desk. Hotel is clean, nice renovated rooms, staff is friendly and you can't beat the price. Will definitely recommend to friends and family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r425436586-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>425436586</t>
+  </si>
+  <si>
+    <t>10/05/2016</t>
+  </si>
+  <si>
+    <t>GREAT Team</t>
+  </si>
+  <si>
+    <t>I had a great stay! My room was clean, the staff at the front were very friendly I checked in late and expected no one to be nice in the middle of the night but they were awesome! Also they always have hot coffee!!! I know my new spot!MoreShow less</t>
+  </si>
+  <si>
+    <t>Natty R, General Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded October 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2016</t>
+  </si>
+  <si>
+    <t>I had a great stay! My room was clean, the staff at the front were very friendly I checked in late and expected no one to be nice in the middle of the night but they were awesome! Also they always have hot coffee!!! I know my new spot!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r417751606-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>417751606</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Inexpensive quality</t>
+  </si>
+  <si>
+    <t>Stayed here for work for a week nice warm and cozy. Staff suer friendly and room was totally remodeled just wish red roof would have a better breakfast are be consistent with all the chains. I'll stay here again in November</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r413264156-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>413264156</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>WOW!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Came to the hotel around 3 am and the night shift lady helped me and my tired kids settle in. She was very quick to check us in and offered us a late checkout which was very much appreciated. Our room itself was clean, the facility was quiet and offered in room coffee. The front desk staff in the morning were very friendly greeted us once we stepped out of the elevator and were very helpful by printing us out directions to our destination. </t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r412964027-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>412964027</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great service and facility </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Came into the hotel early due to my flight coming in early and the front desk lady Latrina accommodated me with an early check in. The rooms were clean and spacious and there was breakfast in the morning. Also the young lady at, night Karen was helpful with helping me find directions to the new waterpark. I will surely be staying at the red roof Inn again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r408216672-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>408216672</t>
+  </si>
+  <si>
+    <t>08/21/2016</t>
+  </si>
+  <si>
+    <t>Don't have early plans</t>
+  </si>
+  <si>
+    <t>Booked several days ahead . Was told check in was at 2. Arrived at 2.30. Was told  room was being cleaned . Waited 45 minutes had to ask the lady at the front desk who has already forgotten my name,  although we have been sitting in the tiny lobby, if it was ready.  Nope over booked the night before so they were behind . Front desk didn't even apologize.  Went to another hotel and went to the Texans game.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r407435947-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>407435947</t>
+  </si>
+  <si>
+    <t>08/19/2016</t>
+  </si>
+  <si>
+    <t>Bad hotel</t>
+  </si>
+  <si>
+    <t>Room is not very clean Too much noises57 usd per night for a bad customer careCoffee machine was dirtyDoors are difficult to open you had to be strong to push itDark room The breakfast isn't a breakfast only coffee small cake cups and "juice water"Service is very bad</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r406131062-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>406131062</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>Always an Excellent Choice!</t>
+  </si>
+  <si>
+    <t>Every time I am in town I stay at this hotel.  Not only is it updated and modern but it is conveniently located to everywhere I need to be.  The staff is top notch too!  There is no request too small and they always wear the biggest smiles!  The manager Latrina is amazing and always takes great care of me each and every time.  Each time I return it seems that they have updated and remodeled a new part of the hotel.  They offer a nice breakfast in the a.m. and I get a lot of use out of their fitness room in the evenings! You can't go wrong choosing this hotel for your stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Every time I am in town I stay at this hotel.  Not only is it updated and modern but it is conveniently located to everywhere I need to be.  The staff is top notch too!  There is no request too small and they always wear the biggest smiles!  The manager Latrina is amazing and always takes great care of me each and every time.  Each time I return it seems that they have updated and remodeled a new part of the hotel.  They offer a nice breakfast in the a.m. and I get a lot of use out of their fitness room in the evenings! You can't go wrong choosing this hotel for your stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r403355849-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>403355849</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>Great stay ! value is great! recommended to any one trina and staff go beyond!</t>
+  </si>
+  <si>
+    <t>stayed at this particular location multiple times, the staff goes beyond to service their guests ,rooms are clean,style of rooms are lovely,trina and her staff accommodate to the highest degree! location is central to multiple food establishments loved it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r403047033-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>403047033</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t>Trina's done it again:)</t>
+  </si>
+  <si>
+    <t>I love my stays at this hotel not only because of the convenient location, free wi-fi and comfy beds, but because the people that work here, in particular Trina Sampson, make you feel welcome and at home. Trina goes above and beyond for her guests and I value her hard work and dedication. Thank you so much for always making me feel welcome, Trina!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r399151044-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>399151044</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t>Dirty loud</t>
+  </si>
+  <si>
+    <t>Room had peanut shell on floor by door and empty Gatorade bottle by chair. You're right by the highway so I expect to hear it, but it sounded like the cars were driving right thru our room as well as everyone who walked by. Might as well have been sleeping outside! I sleep deeply very easy. Not here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r374043407-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>374043407</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>Expected more.</t>
+  </si>
+  <si>
+    <t>I stayed a couple of nights.Pros:-Updated Interior-Not expensive (but not extended stay prices)-Clean rooms-Ironing board and Iron in room-Quiet-Small exercise room.Cons:-The emergency exit doorknob on the third floor was loose and broken. You couldn't open it if you were entering the third floor.-No pool.-Coffee maker in room was missing a piece.-Toilet ran longer than it should have.-No plug outlet on the left side of the bed.-The ice bucket and cups were in the BATHROOM.-Only 30 channels of t.v.-The complimentary lobby breakfast consisted of mini muffins and cookies. No milk. Orange juice, coffee and tea were the choices.-The internet kept dropping every minute. So I had to use my phone. Couldn't use my laptop. Can't get work done here!I expected a little more from a Red Roof Plus, not just a new interior.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Trina S, Front Office Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded May 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2016</t>
+  </si>
+  <si>
+    <t>I stayed a couple of nights.Pros:-Updated Interior-Not expensive (but not extended stay prices)-Clean rooms-Ironing board and Iron in room-Quiet-Small exercise room.Cons:-The emergency exit doorknob on the third floor was loose and broken. You couldn't open it if you were entering the third floor.-No pool.-Coffee maker in room was missing a piece.-Toilet ran longer than it should have.-No plug outlet on the left side of the bed.-The ice bucket and cups were in the BATHROOM.-Only 30 channels of t.v.-The complimentary lobby breakfast consisted of mini muffins and cookies. No milk. Orange juice, coffee and tea were the choices.-The internet kept dropping every minute. So I had to use my phone. Couldn't use my laptop. Can't get work done here!I expected a little more from a Red Roof Plus, not just a new interior.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r373215208-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373215208</t>
+  </si>
+  <si>
+    <t>05/15/2016</t>
+  </si>
+  <si>
+    <t>The staff went out of there way to help me with personal issues i was having and still are!!</t>
+  </si>
+  <si>
+    <t>i woke up to my wife gone, no money, no phone, no ride, and to top it off it started pooring lost with no sence of direction, they did everything in there power to help my situation and are still in the process of helping me find a ride. Also the staff themselves are kind and beautiful physically and personality wise. If you ever pass by stop and enjoy a home from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chase  E, Front Office Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded May 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2016</t>
+  </si>
+  <si>
+    <t>i woke up to my wife gone, no money, no phone, no ride, and to top it off it started pooring lost with no sence of direction, they did everything in there power to help my situation and are still in the process of helping me find a ride. Also the staff themselves are kind and beautiful physically and personality wise. If you ever pass by stop and enjoy a home from home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r372609569-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>372609569</t>
+  </si>
+  <si>
+    <t>05/13/2016</t>
+  </si>
+  <si>
+    <t>Staff go above and beyond their duties</t>
+  </si>
+  <si>
+    <t>I arrived in Houston last week with my service dog, Sadie and checked into the hotel early.  I had difficulties that meant I would be unable to get back to the hotel overnight.  I was able to make arrangements with the night auditor, Christina to make sure my dog had water, food and bathroom breaks during my absence.  Not only did Christina set it up with the overnight security person Karen, to check on my dog, but the two of them made sure Sadie was given several walks to relieve herself.  I stay in Red Roof Inns often due to the fact that they are dog-friendly, but this is the most dog-friendly action that could be taken by anyone, anywhere.  This is the kind of service that is not even expected at a five-star hotel, but the Red Roof staff here, made sure everything was taken care of for me.  INCREDIBLE.  When I tried to offer the dog-walker pay, she said the hotel does not allow her to take tips from guests.  Dog-walking is never free, but this Red Roof Inn, made sure Sadie had several walks overnight.  I am extremely grateful for these actions by Christina and Karen on behalf of Red Roof Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>Trina S, Front Office Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded May 17, 2016</t>
+  </si>
+  <si>
+    <t>I arrived in Houston last week with my service dog, Sadie and checked into the hotel early.  I had difficulties that meant I would be unable to get back to the hotel overnight.  I was able to make arrangements with the night auditor, Christina to make sure my dog had water, food and bathroom breaks during my absence.  Not only did Christina set it up with the overnight security person Karen, to check on my dog, but the two of them made sure Sadie was given several walks to relieve herself.  I stay in Red Roof Inns often due to the fact that they are dog-friendly, but this is the most dog-friendly action that could be taken by anyone, anywhere.  This is the kind of service that is not even expected at a five-star hotel, but the Red Roof staff here, made sure everything was taken care of for me.  INCREDIBLE.  When I tried to offer the dog-walker pay, she said the hotel does not allow her to take tips from guests.  Dog-walking is never free, but this Red Roof Inn, made sure Sadie had several walks overnight.  I am extremely grateful for these actions by Christina and Karen on behalf of Red Roof Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r368253777-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>368253777</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>I stay at this property (222) regularly and my most recent stay was very enjoyable.  LaTrina at the Front Desk greeted me with her usual smile and welcome.  She is always very attentive and she makes sure everything is properly and professionally handled.  My room was very clean and everything was neat and in order as expected.  I utilized the complimentary breakfast as well as the free wifi.  I will definitely be returning!!!</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r364645316-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>364645316</t>
+  </si>
+  <si>
+    <t>04/16/2016</t>
+  </si>
+  <si>
+    <t>The Front Desk Staff Makes the Difference</t>
+  </si>
+  <si>
+    <t>Stayed over several days and had a couple of room changes. The rooms are adequate but the ADA accessible room we were assigned to left a little to be desired. The toilet, tho loud, didn't flush properly (I added water to the bowl to get a more thorough flush.) Also, the bathroom sink was missing the stopper and the handheld shower was very loose so you have to use it as a handheld shower. The AC unit was also a little tricky to get working properly.(a common issue with all of the rooms we had.) Travelling with pets was very easy and the front desk staff (Tara and LaTrina) were EXTREMELY helpful and pleasant.They made the difference in our stay and their helpfulness made it easier to overlook some minor inconveniences.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed over several days and had a couple of room changes. The rooms are adequate but the ADA accessible room we were assigned to left a little to be desired. The toilet, tho loud, didn't flush properly (I added water to the bowl to get a more thorough flush.) Also, the bathroom sink was missing the stopper and the handheld shower was very loose so you have to use it as a handheld shower. The AC unit was also a little tricky to get working properly.(a common issue with all of the rooms we had.) Travelling with pets was very easy and the front desk staff (Tara and LaTrina) were EXTREMELY helpful and pleasant.They made the difference in our stay and their helpfulness made it easier to overlook some minor inconveniences.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r364457497-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>364457497</t>
+  </si>
+  <si>
+    <t>04/15/2016</t>
+  </si>
+  <si>
+    <t>Wonderfully Surprised</t>
+  </si>
+  <si>
+    <t>I had the good fortune of stopping at the Red Roof Plus on I-10 and Park Place while passing through Houston , TX on business. I was looking for a cheap clean hotel to get a few hours of sleep and proceed on my drive. What I got exceeded all my expectations. The staff was super friendly and attentive. The hotel was clean and appeared to be newly remodeled. The bed was amazing, and the room was spacious with a work station. The service, facility and cost ($59.00 + tax) is an INCREDIBLE DEAL!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r357377315-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357377315</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Clean, Quiet and Easy Access</t>
+  </si>
+  <si>
+    <t>We stayed here one night.  The room was clean and the bed was comfortable.  Easy access to the area that we were heading to.  They had a breakfast but we did not take the time to try it.  The staff was friendly and helpful.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r353975241-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>353975241</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>Great Clean Quiet Place For a Business Trip</t>
+  </si>
+  <si>
+    <t>Very Clean Great staff was cheak in by ms. Latrina she was very polite and very helpful checked me in very fast I didn't have to wait much and my check out was just as courteous this is a very clean place very quiet something that you look for especially when you're in a business trip this is a great location and there's a lot of great restaurants around overall I had a very great day Thank You Red Roof!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r353326068-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>353326068</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t>Very helpful staff!</t>
+  </si>
+  <si>
+    <t>I stay at this place whenever I need to spend the night in Houston. I like its location on the west side of town and near Hwy 6.  Super friendly staff and management!  There was a mix-up in my reservation online, but the Manager helped me with it.  Claudia and Trina at the front desk are cheerful and so helpful on every visit.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r352714993-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>352714993</t>
+  </si>
+  <si>
+    <t>03/03/2016</t>
+  </si>
+  <si>
+    <t>great staff (latrina and chase) above and beyond kind of service</t>
+  </si>
+  <si>
+    <t>chase is a great manager always timely and goes above and beyond to provide great service,latrina is awesome as well always nice and ready to cater to the customer any problems presented were handled in a speedy time frame</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r352680367-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>352680367</t>
+  </si>
+  <si>
+    <t>good stay</t>
+  </si>
+  <si>
+    <t>I stay at this property in the corridor as they are vey nice and helped me with my stay here to make sure I was satisfied, Chase and the staff go above and beyond to ensure we takin care of. I stay here as this property as its the best Red roof in Houston. The value is incredible and they continue to wow!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r352647614-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>352647614</t>
+  </si>
+  <si>
+    <t>Mr Brian Johnson. Business owner</t>
+  </si>
+  <si>
+    <t>It was a pleasure to stay here. Claudia, the young lady working front desk, was extremely knowledgeable, and very professional. The mgr Chase is a great mgr. With front desk staff like this, I will revisit, and recommend this hotel to others.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r348198891-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348198891</t>
+  </si>
+  <si>
+    <t>02/16/2016</t>
+  </si>
+  <si>
+    <t>Latrina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latrina was amazing during our visit. She always had a smile on her face and was willing to help with all of our needs. The rooms were actually impressive and I would certainly stay again. It was close to everything you can imagine store wise and food. Right off the interstate. I stayed here to go to MD Anderson (just in case you are visiting the same) and it is about 30min away. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r337630548-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>337630548</t>
+  </si>
+  <si>
+    <t>01/05/2016</t>
+  </si>
+  <si>
+    <t>Wonderful Customer Service</t>
+  </si>
+  <si>
+    <t>I can't say enough good things about the Customer Service at this hotel.  You can tell that they really care about their guests here.  No request is too big for them.  They are always professional and friendly and always wear a big smile!  Latrina and Angie are especially great and I always enjoy seeing them when I return.  The renovated rooms are amazing as well.  The beds are really comfortable and the breakfast in the mornings is a nice amenity.  You will not go wrong staying at this hotel.  You can't beat the Customer Service and the location!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r333525190-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>333525190</t>
+  </si>
+  <si>
+    <t>12/17/2015</t>
+  </si>
+  <si>
+    <t>I have stayed here on numerous occasions and it never disappoints. I know what i'm getting when I book this hotel and that always puts my mind at ease when there are other things to worry about. The general manager Chase and the staff are very accommodating and very personable. I was able to check in early. the rooms are clean and have nice amenities such as a flat screen tvs and wifi  (which is a plus). The breakfast provided in the morning is usually danishes muffins fruit or granola bars, Kind of like a breakfast bar. I will continue to return when I am staying in Houston. There are restaurants close to the hotel but not walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed here on numerous occasions and it never disappoints. I know what i'm getting when I book this hotel and that always puts my mind at ease when there are other things to worry about. The general manager Chase and the staff are very accommodating and very personable. I was able to check in early. the rooms are clean and have nice amenities such as a flat screen tvs and wifi  (which is a plus). The breakfast provided in the morning is usually danishes muffins fruit or granola bars, Kind of like a breakfast bar. I will continue to return when I am staying in Houston. There are restaurants close to the hotel but not walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r329909314-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>329909314</t>
+  </si>
+  <si>
+    <t>11/30/2015</t>
+  </si>
+  <si>
+    <t>Best budget hotel</t>
+  </si>
+  <si>
+    <t>Their rooms are very clean and service is worth for the money. Do not expect a superior service or a 5 start stay. Few things that concern are-Rooms are in an open space that jeopardizes safety.Breakfast is almost not there.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r327701268-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327701268</t>
+  </si>
+  <si>
+    <t>11/18/2015</t>
+  </si>
+  <si>
+    <t>Very friendly staff</t>
+  </si>
+  <si>
+    <t>Pretty nice environment and staff. Housekeeping made sure I had everything I needed and the general manager was awesome when it came to resolving an issue that I had. With the exception of mold on the ceiling and fixtures needing severe repair, i would stay here again.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r327509355-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327509355</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>Good Stay. Pet friendly.</t>
+  </si>
+  <si>
+    <t>Weather stranded us in the area. Found this hotel thru google.com. Glad we did, the price was just what our budget allowed and most importantly it was pet friendly. We've stayed at Red Roofs before but never a plus, we were pleasantly surprised. This hotel was renovated and the upgrades from the standard Red Roofs was very nice, the towels alone made a huge difference. The room was seemed upgraded and we were told they were standard. The bed was comfortable and we all had a good night sleep. Wifi connection was good, stable and FREE. We will gladly and highly recommend your hotel and Red Roof Plus. The staff was very attentive as well. Good job all.MoreShow less</t>
+  </si>
+  <si>
+    <t>Weather stranded us in the area. Found this hotel thru google.com. Glad we did, the price was just what our budget allowed and most importantly it was pet friendly. We've stayed at Red Roofs before but never a plus, we were pleasantly surprised. This hotel was renovated and the upgrades from the standard Red Roofs was very nice, the towels alone made a huge difference. The room was seemed upgraded and we were told they were standard. The bed was comfortable and we all had a good night sleep. Wifi connection was good, stable and FREE. We will gladly and highly recommend your hotel and Red Roof Plus. The staff was very attentive as well. Good job all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r324252510-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>324252510</t>
+  </si>
+  <si>
+    <t>11/03/2015</t>
+  </si>
+  <si>
+    <t>Roach in bathroom and bug in the bed</t>
+  </si>
+  <si>
+    <t>I will never stay here again. I was very skeptical but after seeing good reviews I gave it a shot. The fire alarm went off both nights I stayed here and I got no rest. A bug also crawled on me in bed. I was not comfortable here AT ALL! The lady at the counter was nice though.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r323473315-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>323473315</t>
+  </si>
+  <si>
+    <t>10/31/2015</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay!</t>
+  </si>
+  <si>
+    <t>The room was very clean and had extra amenities like fridge, microwave, and safe. The staff was very helpful, they do have snack and drink machines onsite. I needed extra towels and they gave me more than plenty. the only thing needed to improve would be the breakfast,  just some chocolate muffins and oatmeal packages and juice or coffee. not alot of choices. but other than that, I would stay again! customer Service was Great!!! and so was the room!!! Price was very reasonable thru bookings. com also!</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r320800562-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>320800562</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was my first time staying at a red roof plus, And the hotel was very peaceful. Staff were very polite. Will be returning again when I'm in town. Rooms were clean and spacious enough for myself and my family. The rooms were even renovated which made it even more comfortable for us. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r316461022-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>316461022</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>3 day visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This motel is well placed just of i10, close to lots of places to eat. We used the motel as base while exploring Houston. Was ideal spot.The staff were very friendly and helpful and the hotel was clean and quiet there were no issues whileWe were there </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r316427210-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>316427210</t>
+  </si>
+  <si>
+    <t>Ghetto! You get what you pay for</t>
+  </si>
+  <si>
+    <t>I don't know how this hotel got good reviews, it's ghetto and gross. Molds on the bedroom ceiling, bathroom ceiling, and the shower head. Yes, it's cheap but for about $20 more/night you could get a much nicer hotel. I was charged a total of $4 more at check-in for the safe in the room that I didn't even request for and never used. I ended up paying around $70/night for a room that doesn't even come with breakfast. For around $20 more I could have stayed at a Comfort Inn hotel in the area which is much much nicer and cleaner and serve a pretty good complimentary breakfast. That's where I ended up staying the following night after I checked out of this Red Roof. Just check out the photos I took of this hotel and see for yourself if it's worth saving a few $$ less. MoreShow less</t>
+  </si>
+  <si>
+    <t>I don't know how this hotel got good reviews, it's ghetto and gross. Molds on the bedroom ceiling, bathroom ceiling, and the shower head. Yes, it's cheap but for about $20 more/night you could get a much nicer hotel. I was charged a total of $4 more at check-in for the safe in the room that I didn't even request for and never used. I ended up paying around $70/night for a room that doesn't even come with breakfast. For around $20 more I could have stayed at a Comfort Inn hotel in the area which is much much nicer and cleaner and serve a pretty good complimentary breakfast. That's where I ended up staying the following night after I checked out of this Red Roof. Just check out the photos I took of this hotel and see for yourself if it's worth saving a few $$ less. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r306853294-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>306853294</t>
+  </si>
+  <si>
+    <t>09/03/2015</t>
+  </si>
+  <si>
+    <t>Better Than Great!</t>
+  </si>
+  <si>
+    <t>We came from out of town to stay the night before surgery, at the medical center the next morning. The rooms were ready, clean, well stocked, comfortable, upscale, nice big plasma tv, in good repair and quiet. There was ice and soda available on our floor, the double room was large and the a/c worked really well to quell the Texas heat!
+The really amazing part of our stay however, was the morning of checkout. During preparation for surgery my sister in law, who is quite heavy, suffered a serious fall and i could not get her out of the bath. We were quite concerned that we would miss her surgical call and that an ambulance would be required to get her up. Additionally she was in pain and feared she had injured her ankle in the fall. Unclothed and slippery - needless to say, she was in a jam! We called the front desk who sent us an "Angel"! Richard came to our rescue! A strong, kind, caring man who treated us with care and great compassion. He lifted her out like she was a mere rag doll and with ease placed her over onto the toilet. After helping me get her dressed and out of the bathroom we realized the injury was serious and he brought a wheelchair and helped me to get her all the way into our truck, saving us the time and expense and her...We came from out of town to stay the night before surgery, at the medical center the next morning. The rooms were ready, clean, well stocked, comfortable, upscale, nice big plasma tv, in good repair and quiet. There was ice and soda available on our floor, the double room was large and the a/c worked really well to quell the Texas heat!The really amazing part of our stay however, was the morning of checkout. During preparation for surgery my sister in law, who is quite heavy, suffered a serious fall and i could not get her out of the bath. We were quite concerned that we would miss her surgical call and that an ambulance would be required to get her up. Additionally she was in pain and feared she had injured her ankle in the fall. Unclothed and slippery - needless to say, she was in a jam! We called the front desk who sent us an "Angel"! Richard came to our rescue! A strong, kind, caring man who treated us with care and great compassion. He lifted her out like she was a mere rag doll and with ease placed her over onto the toilet. After helping me get her dressed and out of the bathroom we realized the injury was serious and he brought a wheelchair and helped me to get her all the way into our truck, saving us the time and expense and her the pain, of an ambulance ride. At the hospital we discovered she had broken all the bones in her ankle and required major surgery! There was NO possible way we could have managed without the blessing of Richard! Thank you Red Roof Inn! We would stay here anytime!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>We came from out of town to stay the night before surgery, at the medical center the next morning. The rooms were ready, clean, well stocked, comfortable, upscale, nice big plasma tv, in good repair and quiet. There was ice and soda available on our floor, the double room was large and the a/c worked really well to quell the Texas heat!
+The really amazing part of our stay however, was the morning of checkout. During preparation for surgery my sister in law, who is quite heavy, suffered a serious fall and i could not get her out of the bath. We were quite concerned that we would miss her surgical call and that an ambulance would be required to get her up. Additionally she was in pain and feared she had injured her ankle in the fall. Unclothed and slippery - needless to say, she was in a jam! We called the front desk who sent us an "Angel"! Richard came to our rescue! A strong, kind, caring man who treated us with care and great compassion. He lifted her out like she was a mere rag doll and with ease placed her over onto the toilet. After helping me get her dressed and out of the bathroom we realized the injury was serious and he brought a wheelchair and helped me to get her all the way into our truck, saving us the time and expense and her...We came from out of town to stay the night before surgery, at the medical center the next morning. The rooms were ready, clean, well stocked, comfortable, upscale, nice big plasma tv, in good repair and quiet. There was ice and soda available on our floor, the double room was large and the a/c worked really well to quell the Texas heat!The really amazing part of our stay however, was the morning of checkout. During preparation for surgery my sister in law, who is quite heavy, suffered a serious fall and i could not get her out of the bath. We were quite concerned that we would miss her surgical call and that an ambulance would be required to get her up. Additionally she was in pain and feared she had injured her ankle in the fall. Unclothed and slippery - needless to say, she was in a jam! We called the front desk who sent us an "Angel"! Richard came to our rescue! A strong, kind, caring man who treated us with care and great compassion. He lifted her out like she was a mere rag doll and with ease placed her over onto the toilet. After helping me get her dressed and out of the bathroom we realized the injury was serious and he brought a wheelchair and helped me to get her all the way into our truck, saving us the time and expense and her the pain, of an ambulance ride. At the hospital we discovered she had broken all the bones in her ankle and required major surgery! There was NO possible way we could have managed without the blessing of Richard! Thank you Red Roof Inn! We would stay here anytime!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r298573376-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>298573376</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>I picked a winner!!!</t>
+  </si>
+  <si>
+    <t>This was my first stay at this location and I picked a winner.  When I go back to Houston it's nice to know where to stay, whether for business or for pleasure.  Angie helped make my stay there very enjoyable from the very first time we met, and Jessica was just as nice and helpful.  It's the best deal in town as far as comfort and amenities go...try it, you'll love it too!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Chase  E, General Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded August 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2015</t>
+  </si>
+  <si>
+    <t>This was my first stay at this location and I picked a winner.  When I go back to Houston it's nice to know where to stay, whether for business or for pleasure.  Angie helped make my stay there very enjoyable from the very first time we met, and Jessica was just as nice and helpful.  It's the best deal in town as far as comfort and amenities go...try it, you'll love it too!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r295795631-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>295795631</t>
+  </si>
+  <si>
+    <t>08/04/2015</t>
+  </si>
+  <si>
+    <t>Amazing Service and Great Amenities!</t>
+  </si>
+  <si>
+    <t>I have stayed many times at this location and can't say enough about it.  This is my go to place when I am in the Houston area.  The staff is excellent and always go above and beyond to make sure I have the best experience.  The rooms are very comfortable and spacious and nicely remodeled.  This hotel is in a great location whether you are in town for work or leisure.  The manager Chase really manages the place well and Latrina and Angie are awesome!  You can't go wrong with the location and price!MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed many times at this location and can't say enough about it.  This is my go to place when I am in the Houston area.  The staff is excellent and always go above and beyond to make sure I have the best experience.  The rooms are very comfortable and spacious and nicely remodeled.  This hotel is in a great location whether you are in town for work or leisure.  The manager Chase really manages the place well and Latrina and Angie are awesome!  You can't go wrong with the location and price!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r294770407-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>294770407</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The perfect place </t>
+  </si>
+  <si>
+    <t>From the moment we walked in their friendly staff met us with a smile and was immediately helpful. After a quick check in we entered our clean spacious room. With updated amenities. Large LGHD TV ! After we got settled in we received a call from front desk making sure everything was to our liking. Our stay was comfortable quiet and relaxing. Will definitely visit again! Best in the area for sure. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Chase  E, General Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2015</t>
+  </si>
+  <si>
+    <t>From the moment we walked in their friendly staff met us with a smile and was immediately helpful. After a quick check in we entered our clean spacious room. With updated amenities. Large LGHD TV ! After we got settled in we received a call from front desk making sure everything was to our liking. Our stay was comfortable quiet and relaxing. Will definitely visit again! Best in the area for sure. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r292816341-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>292816341</t>
+  </si>
+  <si>
+    <t>07/26/2015</t>
+  </si>
+  <si>
+    <t>Friendly staff</t>
+  </si>
+  <si>
+    <t>One of the staff members, Jessica Wofford, was very friendly and made sure we were comfortable, and offered to help us with any troubles we encountered.. The rooms were great and spacious. The rooms were clean room and the hotel offered a sufficent breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chase  E, General Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded July 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2015</t>
+  </si>
+  <si>
+    <t>One of the staff members, Jessica Wofford, was very friendly and made sure we were comfortable, and offered to help us with any troubles we encountered.. The rooms were great and spacious. The rooms were clean room and the hotel offered a sufficent breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r292375387-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>292375387</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>Excellent front desk staff.</t>
+  </si>
+  <si>
+    <t>Nice, clean space. Pet friendly, but what really makes a visit is how people treat you: I am especially impressed by Latrina and her front desk staff, Angie, Karen and Evelyn. Latrina always went above and beyond to help in whatever way possible to make my stay more pleasant and the rest of the girls are just sweethearts. They sure do put a smile on your face, and we all know that it's the way you're treated that makes an impression on you. Thanks, ladies!MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice, clean space. Pet friendly, but what really makes a visit is how people treat you: I am especially impressed by Latrina and her front desk staff, Angie, Karen and Evelyn. Latrina always went above and beyond to help in whatever way possible to make my stay more pleasant and the rest of the girls are just sweethearts. They sure do put a smile on your face, and we all know that it's the way you're treated that makes an impression on you. Thanks, ladies!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r291621916-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>291621916</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>Pretty good</t>
+  </si>
+  <si>
+    <t>After my scathing review of another red roof property I was worried about booking this place but it was chalk and cheese. This place gave excellent service had a helpful receptionist and the rooms were well appointed and clean and modern. No complaints here</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r286993320-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>286993320</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Roaches and mold</t>
+  </si>
+  <si>
+    <t>The front desk service was nice, but that doesn't make up for the roach I saw or the mold growing around the ceiling light fixtures (the peel and stick "wood look" floor laminates were also coming loose.) The front desk attendant was very apologetic. She said the hotel had been renovated a year ago. It is appealing at first glance but pulling back the facade and it what crawls out from under the bed and is growing in the walls that should be the concern.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r286391873-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>286391873</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Awesome Place and Service!</t>
+  </si>
+  <si>
+    <t>I came in at 3am and immediately had a key, an amazing room with a huge bed and it was very clean! Latrina helped me on the morning with a deposit and was incredibly kind and Chase, the manager on duty was extremely friendly and helpful! There seems to be an amazing team here and it shows in the property! -Erin</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r284931808-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>284931808</t>
+  </si>
+  <si>
+    <t>07/01/2015</t>
+  </si>
+  <si>
+    <t>Parents Weekend to visit daughter, her fiance and meet his parents.</t>
+  </si>
+  <si>
+    <t>Easy to find off Hwy 10, close to downtown area, clean, friendly staff. Our room was a queen size bed, 3 pillows (odd!), with a mini fridge, safe, desk dresser combo and lg flat panel TV that was mounted on wall. Coffee maker ( fairly decent coffee for an in-room set up). The entry way to room was a hugh empty was of space however and we both thought that so odd. But i think some rooms have kichnettes so maybe they designed them all so they could add that feature to all if needed. We called and asked for 2 more pillows and they said they didn't have any. But we did get 2 more the next night. We will probably return to visit and use this place again. easily accessiable to where we would go when we visit and at 70.00 a night a bargin!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Easy to find off Hwy 10, close to downtown area, clean, friendly staff. Our room was a queen size bed, 3 pillows (odd!), with a mini fridge, safe, desk dresser combo and lg flat panel TV that was mounted on wall. Coffee maker ( fairly decent coffee for an in-room set up). The entry way to room was a hugh empty was of space however and we both thought that so odd. But i think some rooms have kichnettes so maybe they designed them all so they could add that feature to all if needed. We called and asked for 2 more pillows and they said they didn't have any. But we did get 2 more the next night. We will probably return to visit and use this place again. easily accessiable to where we would go when we visit and at 70.00 a night a bargin!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r277623166-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>277623166</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Convenient, pet-friendly, breakfast is lacking</t>
+  </si>
+  <si>
+    <t>We stayed at the Red Roof Inn because we were on a long drive with a cat, so we needed a pet-friendly place.  It is very convenient, just off the I 10 west of Houston, so we were in a good starting point for heading west the next morning.  In spite of being near the freeway, it was quiet, in a green, uncrowded area.  Check-in was easy, and the person at the desk was friendly and helpful.  We were driving a moving van, and had no trouble parking.  The room was comfortable and clean, with good beds, microwave, refrigerator.  It is supposed to be non-smoking: there was a strong smoke smell in the hallway, but the room smelled fresh.  My only complaint was the breakfast, which was the worst I have had in a hotel: very limited selection.  They did have coffee, which is after all the most important thing, but no decaf for those who wanted it.  Other than that, there were a couple of oversugared sweet rolls, some juice, and some inedible apples.  That's it.  No cereal, no toast, nothing else.  (There were some vending machines nearby).   Tiny breakfast area, because, after all, no reason to sit there long.  It really shouldn't be that tough to put out a few boxes of cereal for people who don't want sweet rolls, and the convenience of breakfast in the hotel is sometimes important, if you are trying to get an...We stayed at the Red Roof Inn because we were on a long drive with a cat, so we needed a pet-friendly place.  It is very convenient, just off the I 10 west of Houston, so we were in a good starting point for heading west the next morning.  In spite of being near the freeway, it was quiet, in a green, uncrowded area.  Check-in was easy, and the person at the desk was friendly and helpful.  We were driving a moving van, and had no trouble parking.  The room was comfortable and clean, with good beds, microwave, refrigerator.  It is supposed to be non-smoking: there was a strong smoke smell in the hallway, but the room smelled fresh.  My only complaint was the breakfast, which was the worst I have had in a hotel: very limited selection.  They did have coffee, which is after all the most important thing, but no decaf for those who wanted it.  Other than that, there were a couple of oversugared sweet rolls, some juice, and some inedible apples.  That's it.  No cereal, no toast, nothing else.  (There were some vending machines nearby).   Tiny breakfast area, because, after all, no reason to sit there long.  It really shouldn't be that tough to put out a few boxes of cereal for people who don't want sweet rolls, and the convenience of breakfast in the hotel is sometimes important, if you are trying to get an early start.  We would still stay there again, but I guess I would bring my own food.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>We stayed at the Red Roof Inn because we were on a long drive with a cat, so we needed a pet-friendly place.  It is very convenient, just off the I 10 west of Houston, so we were in a good starting point for heading west the next morning.  In spite of being near the freeway, it was quiet, in a green, uncrowded area.  Check-in was easy, and the person at the desk was friendly and helpful.  We were driving a moving van, and had no trouble parking.  The room was comfortable and clean, with good beds, microwave, refrigerator.  It is supposed to be non-smoking: there was a strong smoke smell in the hallway, but the room smelled fresh.  My only complaint was the breakfast, which was the worst I have had in a hotel: very limited selection.  They did have coffee, which is after all the most important thing, but no decaf for those who wanted it.  Other than that, there were a couple of oversugared sweet rolls, some juice, and some inedible apples.  That's it.  No cereal, no toast, nothing else.  (There were some vending machines nearby).   Tiny breakfast area, because, after all, no reason to sit there long.  It really shouldn't be that tough to put out a few boxes of cereal for people who don't want sweet rolls, and the convenience of breakfast in the hotel is sometimes important, if you are trying to get an...We stayed at the Red Roof Inn because we were on a long drive with a cat, so we needed a pet-friendly place.  It is very convenient, just off the I 10 west of Houston, so we were in a good starting point for heading west the next morning.  In spite of being near the freeway, it was quiet, in a green, uncrowded area.  Check-in was easy, and the person at the desk was friendly and helpful.  We were driving a moving van, and had no trouble parking.  The room was comfortable and clean, with good beds, microwave, refrigerator.  It is supposed to be non-smoking: there was a strong smoke smell in the hallway, but the room smelled fresh.  My only complaint was the breakfast, which was the worst I have had in a hotel: very limited selection.  They did have coffee, which is after all the most important thing, but no decaf for those who wanted it.  Other than that, there were a couple of oversugared sweet rolls, some juice, and some inedible apples.  That's it.  No cereal, no toast, nothing else.  (There were some vending machines nearby).   Tiny breakfast area, because, after all, no reason to sit there long.  It really shouldn't be that tough to put out a few boxes of cereal for people who don't want sweet rolls, and the convenience of breakfast in the hotel is sometimes important, if you are trying to get an early start.  We would still stay there again, but I guess I would bring my own food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r267545824-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267545824</t>
+  </si>
+  <si>
+    <t>04/23/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay if you're on the go in Houston.</t>
+  </si>
+  <si>
+    <t>Great location and cost.  Rooms were clean and nice enough.  Customer service was great.  Noise level in our room was a little high but that was because we were right by the stairway and someone kept slamming the door in the late hours. Over all it was a great place to stay.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1857,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1889,4380 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s">
+        <v>117</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" t="s">
+        <v>117</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>131</v>
+      </c>
+      <c r="O15" t="s">
+        <v>96</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>137</v>
+      </c>
+      <c r="X15" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" t="s">
+        <v>150</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>151</v>
+      </c>
+      <c r="X17" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>145</v>
+      </c>
+      <c r="O18" t="s">
+        <v>117</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>151</v>
+      </c>
+      <c r="X18" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>145</v>
+      </c>
+      <c r="O19" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>151</v>
+      </c>
+      <c r="X19" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>166</v>
+      </c>
+      <c r="J20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" t="s">
+        <v>169</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>145</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" t="s">
+        <v>173</v>
+      </c>
+      <c r="L21" t="s">
+        <v>174</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>145</v>
+      </c>
+      <c r="O21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" t="s">
+        <v>172</v>
+      </c>
+      <c r="K22" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" t="s">
+        <v>179</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>145</v>
+      </c>
+      <c r="O22" t="s">
+        <v>68</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>181</v>
+      </c>
+      <c r="J23" t="s">
+        <v>182</v>
+      </c>
+      <c r="K23" t="s">
+        <v>183</v>
+      </c>
+      <c r="L23" t="s">
+        <v>184</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>185</v>
+      </c>
+      <c r="O23" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>188</v>
+      </c>
+      <c r="J24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K24" t="s">
+        <v>190</v>
+      </c>
+      <c r="L24" t="s">
+        <v>191</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>192</v>
+      </c>
+      <c r="O24" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>193</v>
+      </c>
+      <c r="X24" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>197</v>
+      </c>
+      <c r="J25" t="s">
+        <v>198</v>
+      </c>
+      <c r="K25" t="s">
+        <v>199</v>
+      </c>
+      <c r="L25" t="s">
+        <v>200</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>192</v>
+      </c>
+      <c r="O25" t="s">
+        <v>96</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>201</v>
+      </c>
+      <c r="X25" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>204</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>205</v>
+      </c>
+      <c r="J26" t="s">
+        <v>206</v>
+      </c>
+      <c r="K26" t="s">
+        <v>207</v>
+      </c>
+      <c r="L26" t="s">
+        <v>208</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>192</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>193</v>
+      </c>
+      <c r="X26" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>210</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>211</v>
+      </c>
+      <c r="J27" t="s">
+        <v>212</v>
+      </c>
+      <c r="K27" t="s">
+        <v>213</v>
+      </c>
+      <c r="L27" t="s">
+        <v>214</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>215</v>
+      </c>
+      <c r="O27" t="s">
+        <v>68</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>193</v>
+      </c>
+      <c r="X27" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>218</v>
+      </c>
+      <c r="J28" t="s">
+        <v>219</v>
+      </c>
+      <c r="K28" t="s">
+        <v>220</v>
+      </c>
+      <c r="L28" t="s">
+        <v>221</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>192</v>
+      </c>
+      <c r="O28" t="s">
+        <v>96</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>222</v>
+      </c>
+      <c r="X28" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>225</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>226</v>
+      </c>
+      <c r="J29" t="s">
+        <v>227</v>
+      </c>
+      <c r="K29" t="s">
+        <v>228</v>
+      </c>
+      <c r="L29" t="s">
+        <v>229</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>230</v>
+      </c>
+      <c r="O29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>231</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>232</v>
+      </c>
+      <c r="J30" t="s">
+        <v>233</v>
+      </c>
+      <c r="K30" t="s">
+        <v>234</v>
+      </c>
+      <c r="L30" t="s">
+        <v>235</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>236</v>
+      </c>
+      <c r="O30" t="s">
+        <v>96</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>237</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>238</v>
+      </c>
+      <c r="J31" t="s">
+        <v>239</v>
+      </c>
+      <c r="K31" t="s">
+        <v>240</v>
+      </c>
+      <c r="L31" t="s">
+        <v>241</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>236</v>
+      </c>
+      <c r="O31" t="s">
+        <v>59</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>242</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>243</v>
+      </c>
+      <c r="J32" t="s">
+        <v>244</v>
+      </c>
+      <c r="K32" t="s">
+        <v>245</v>
+      </c>
+      <c r="L32" t="s">
+        <v>246</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>236</v>
+      </c>
+      <c r="O32" t="s">
+        <v>96</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>247</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>248</v>
+      </c>
+      <c r="J33" t="s">
+        <v>249</v>
+      </c>
+      <c r="K33" t="s">
+        <v>250</v>
+      </c>
+      <c r="L33" t="s">
+        <v>251</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>236</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>252</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>253</v>
+      </c>
+      <c r="J34" t="s">
+        <v>254</v>
+      </c>
+      <c r="K34" t="s">
+        <v>255</v>
+      </c>
+      <c r="L34" t="s">
+        <v>256</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>257</v>
+      </c>
+      <c r="O34" t="s">
+        <v>68</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>259</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>260</v>
+      </c>
+      <c r="J35" t="s">
+        <v>261</v>
+      </c>
+      <c r="K35" t="s">
+        <v>262</v>
+      </c>
+      <c r="L35" t="s">
+        <v>263</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>257</v>
+      </c>
+      <c r="O35" t="s">
+        <v>117</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>264</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>265</v>
+      </c>
+      <c r="J36" t="s">
+        <v>266</v>
+      </c>
+      <c r="K36" t="s">
+        <v>267</v>
+      </c>
+      <c r="L36" t="s">
+        <v>268</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>236</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>269</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>270</v>
+      </c>
+      <c r="J37" t="s">
+        <v>271</v>
+      </c>
+      <c r="K37" t="s">
+        <v>272</v>
+      </c>
+      <c r="L37" t="s">
+        <v>273</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>257</v>
+      </c>
+      <c r="O37" t="s">
+        <v>59</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>274</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>275</v>
+      </c>
+      <c r="J38" t="s">
+        <v>276</v>
+      </c>
+      <c r="K38" t="s">
+        <v>277</v>
+      </c>
+      <c r="L38" t="s">
+        <v>278</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>279</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>280</v>
+      </c>
+      <c r="X38" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>283</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>284</v>
+      </c>
+      <c r="J39" t="s">
+        <v>285</v>
+      </c>
+      <c r="K39" t="s">
+        <v>286</v>
+      </c>
+      <c r="L39" t="s">
+        <v>287</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>279</v>
+      </c>
+      <c r="O39" t="s">
+        <v>96</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>288</v>
+      </c>
+      <c r="X39" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>291</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>292</v>
+      </c>
+      <c r="J40" t="s">
+        <v>293</v>
+      </c>
+      <c r="K40" t="s">
+        <v>294</v>
+      </c>
+      <c r="L40" t="s">
+        <v>295</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>279</v>
+      </c>
+      <c r="O40" t="s">
+        <v>59</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>296</v>
+      </c>
+      <c r="X40" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>298</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>299</v>
+      </c>
+      <c r="J41" t="s">
+        <v>300</v>
+      </c>
+      <c r="K41" t="s">
+        <v>57</v>
+      </c>
+      <c r="L41" t="s">
+        <v>301</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>302</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>303</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>304</v>
+      </c>
+      <c r="J42" t="s">
+        <v>305</v>
+      </c>
+      <c r="K42" t="s">
+        <v>306</v>
+      </c>
+      <c r="L42" t="s">
+        <v>307</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>302</v>
+      </c>
+      <c r="O42" t="s">
+        <v>117</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>309</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>310</v>
+      </c>
+      <c r="J43" t="s">
+        <v>311</v>
+      </c>
+      <c r="K43" t="s">
+        <v>312</v>
+      </c>
+      <c r="L43" t="s">
+        <v>313</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>302</v>
+      </c>
+      <c r="O43" t="s">
+        <v>68</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>314</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>315</v>
+      </c>
+      <c r="J44" t="s">
+        <v>316</v>
+      </c>
+      <c r="K44" t="s">
+        <v>317</v>
+      </c>
+      <c r="L44" t="s">
+        <v>318</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>319</v>
+      </c>
+      <c r="O44" t="s">
+        <v>59</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>320</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>321</v>
+      </c>
+      <c r="J45" t="s">
+        <v>322</v>
+      </c>
+      <c r="K45" t="s">
+        <v>323</v>
+      </c>
+      <c r="L45" t="s">
+        <v>324</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>319</v>
+      </c>
+      <c r="O45" t="s">
+        <v>68</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>325</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>326</v>
+      </c>
+      <c r="J46" t="s">
+        <v>327</v>
+      </c>
+      <c r="K46" t="s">
+        <v>328</v>
+      </c>
+      <c r="L46" t="s">
+        <v>329</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>330</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>331</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>332</v>
+      </c>
+      <c r="J47" t="s">
+        <v>333</v>
+      </c>
+      <c r="K47" t="s">
+        <v>334</v>
+      </c>
+      <c r="L47" t="s">
+        <v>335</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>330</v>
+      </c>
+      <c r="O47" t="s">
+        <v>59</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>336</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>337</v>
+      </c>
+      <c r="J48" t="s">
+        <v>333</v>
+      </c>
+      <c r="K48" t="s">
+        <v>338</v>
+      </c>
+      <c r="L48" t="s">
+        <v>339</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>330</v>
+      </c>
+      <c r="O48" t="s">
+        <v>68</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>340</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>341</v>
+      </c>
+      <c r="J49" t="s">
+        <v>333</v>
+      </c>
+      <c r="K49" t="s">
+        <v>342</v>
+      </c>
+      <c r="L49" t="s">
+        <v>343</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>319</v>
+      </c>
+      <c r="O49" t="s">
+        <v>68</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>344</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>345</v>
+      </c>
+      <c r="J50" t="s">
+        <v>346</v>
+      </c>
+      <c r="K50" t="s">
+        <v>347</v>
+      </c>
+      <c r="L50" t="s">
+        <v>348</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>330</v>
+      </c>
+      <c r="O50" t="s">
+        <v>68</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>349</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>350</v>
+      </c>
+      <c r="J51" t="s">
+        <v>351</v>
+      </c>
+      <c r="K51" t="s">
+        <v>352</v>
+      </c>
+      <c r="L51" t="s">
+        <v>353</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>230</v>
+      </c>
+      <c r="O51" t="s">
+        <v>68</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>354</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>355</v>
+      </c>
+      <c r="J52" t="s">
+        <v>356</v>
+      </c>
+      <c r="K52" t="s">
+        <v>84</v>
+      </c>
+      <c r="L52" t="s">
+        <v>357</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>230</v>
+      </c>
+      <c r="O52" t="s">
+        <v>96</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>359</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>360</v>
+      </c>
+      <c r="J53" t="s">
+        <v>361</v>
+      </c>
+      <c r="K53" t="s">
+        <v>362</v>
+      </c>
+      <c r="L53" t="s">
+        <v>363</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>364</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>365</v>
+      </c>
+      <c r="J54" t="s">
+        <v>366</v>
+      </c>
+      <c r="K54" t="s">
+        <v>367</v>
+      </c>
+      <c r="L54" t="s">
+        <v>368</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>369</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>370</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>371</v>
+      </c>
+      <c r="J55" t="s">
+        <v>372</v>
+      </c>
+      <c r="K55" t="s">
+        <v>373</v>
+      </c>
+      <c r="L55" t="s">
+        <v>374</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>369</v>
+      </c>
+      <c r="O55" t="s">
+        <v>59</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>376</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>377</v>
+      </c>
+      <c r="J56" t="s">
+        <v>378</v>
+      </c>
+      <c r="K56" t="s">
+        <v>379</v>
+      </c>
+      <c r="L56" t="s">
+        <v>380</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>381</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>382</v>
+      </c>
+      <c r="J57" t="s">
+        <v>383</v>
+      </c>
+      <c r="K57" t="s">
+        <v>384</v>
+      </c>
+      <c r="L57" t="s">
+        <v>385</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>386</v>
+      </c>
+      <c r="O57" t="s">
+        <v>96</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>387</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>388</v>
+      </c>
+      <c r="J58" t="s">
+        <v>389</v>
+      </c>
+      <c r="K58" t="s">
+        <v>390</v>
+      </c>
+      <c r="L58" t="s">
+        <v>391</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>392</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>393</v>
+      </c>
+      <c r="J59" t="s">
+        <v>394</v>
+      </c>
+      <c r="K59" t="s">
+        <v>395</v>
+      </c>
+      <c r="L59" t="s">
+        <v>396</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>386</v>
+      </c>
+      <c r="O59" t="s">
+        <v>96</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>397</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>398</v>
+      </c>
+      <c r="J60" t="s">
+        <v>394</v>
+      </c>
+      <c r="K60" t="s">
+        <v>399</v>
+      </c>
+      <c r="L60" t="s">
+        <v>400</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>386</v>
+      </c>
+      <c r="O60" t="s">
+        <v>59</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>402</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>403</v>
+      </c>
+      <c r="J61" t="s">
+        <v>404</v>
+      </c>
+      <c r="K61" t="s">
+        <v>405</v>
+      </c>
+      <c r="L61" t="s">
+        <v>406</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>407</v>
+      </c>
+      <c r="O61" t="s">
+        <v>68</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>409</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>410</v>
+      </c>
+      <c r="J62" t="s">
+        <v>411</v>
+      </c>
+      <c r="K62" t="s">
+        <v>412</v>
+      </c>
+      <c r="L62" t="s">
+        <v>413</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>414</v>
+      </c>
+      <c r="O62" t="s">
+        <v>68</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>415</v>
+      </c>
+      <c r="X62" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>418</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>419</v>
+      </c>
+      <c r="J63" t="s">
+        <v>420</v>
+      </c>
+      <c r="K63" t="s">
+        <v>421</v>
+      </c>
+      <c r="L63" t="s">
+        <v>422</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>414</v>
+      </c>
+      <c r="O63" t="s">
+        <v>68</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>415</v>
+      </c>
+      <c r="X63" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>424</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>425</v>
+      </c>
+      <c r="J64" t="s">
+        <v>426</v>
+      </c>
+      <c r="K64" t="s">
+        <v>427</v>
+      </c>
+      <c r="L64" t="s">
+        <v>428</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>429</v>
+      </c>
+      <c r="O64" t="s">
+        <v>59</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>430</v>
+      </c>
+      <c r="X64" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>433</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>434</v>
+      </c>
+      <c r="J65" t="s">
+        <v>435</v>
+      </c>
+      <c r="K65" t="s">
+        <v>436</v>
+      </c>
+      <c r="L65" t="s">
+        <v>437</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>414</v>
+      </c>
+      <c r="O65" t="s">
+        <v>59</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>438</v>
+      </c>
+      <c r="X65" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>441</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>442</v>
+      </c>
+      <c r="J66" t="s">
+        <v>443</v>
+      </c>
+      <c r="K66" t="s">
+        <v>444</v>
+      </c>
+      <c r="L66" t="s">
+        <v>445</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>414</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>438</v>
+      </c>
+      <c r="X66" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>447</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>448</v>
+      </c>
+      <c r="J67" t="s">
+        <v>449</v>
+      </c>
+      <c r="K67" t="s">
+        <v>450</v>
+      </c>
+      <c r="L67" t="s">
+        <v>451</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>452</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>453</v>
+      </c>
+      <c r="J68" t="s">
+        <v>454</v>
+      </c>
+      <c r="K68" t="s">
+        <v>455</v>
+      </c>
+      <c r="L68" t="s">
+        <v>456</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>414</v>
+      </c>
+      <c r="O68" t="s">
+        <v>68</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>457</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>458</v>
+      </c>
+      <c r="J69" t="s">
+        <v>459</v>
+      </c>
+      <c r="K69" t="s">
+        <v>460</v>
+      </c>
+      <c r="L69" t="s">
+        <v>461</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>414</v>
+      </c>
+      <c r="O69" t="s">
+        <v>117</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>462</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>463</v>
+      </c>
+      <c r="J70" t="s">
+        <v>464</v>
+      </c>
+      <c r="K70" t="s">
+        <v>465</v>
+      </c>
+      <c r="L70" t="s">
+        <v>466</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>467</v>
+      </c>
+      <c r="O70" t="s">
+        <v>96</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>469</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>470</v>
+      </c>
+      <c r="J71" t="s">
+        <v>471</v>
+      </c>
+      <c r="K71" t="s">
+        <v>472</v>
+      </c>
+      <c r="L71" t="s">
+        <v>473</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>474</v>
+      </c>
+      <c r="O71" t="s">
+        <v>68</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>476</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>477</v>
+      </c>
+      <c r="J72" t="s">
+        <v>478</v>
+      </c>
+      <c r="K72" t="s">
+        <v>479</v>
+      </c>
+      <c r="L72" t="s">
+        <v>480</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>481</v>
+      </c>
+      <c r="O72" t="s">
+        <v>96</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_534.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_534.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="775">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,189 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r612857301-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223172</t>
+  </si>
+  <si>
+    <t>612857301</t>
+  </si>
+  <si>
+    <t>09/01/2018</t>
+  </si>
+  <si>
+    <t>Very good hospitality</t>
+  </si>
+  <si>
+    <t>Team 222 MS.Latrina she was wonderful smile everytime very very polite and helpful she made my stay at Red Roof comfortable thank you from me and my family and housekeeping was great also and very cleanMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Sophia W, General Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded 5 days ago</t>
+  </si>
+  <si>
+    <t>Responded 5 days ago</t>
+  </si>
+  <si>
+    <t>Team 222 MS.Latrina she was wonderful smile everytime very very polite and helpful she made my stay at Red Roof comfortable thank you from me and my family and housekeeping was great also and very cleanMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r560113333-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>560113333</t>
+  </si>
+  <si>
+    <t>02/12/2018</t>
+  </si>
+  <si>
+    <t>Clean and Safe</t>
+  </si>
+  <si>
+    <t>Let me start by reminding everyone that many places in Houston are still recovering from the devastating floods from the hurricane, summer of 2017. it's only been a little over 5 months.
+On arrival the girl at the desk was very helpful, pleasant, and efficient! We are Redi Card members and had made our reservations online. I was not happy with the location of the first room (on the east side), and she quickly changed it. There are more grassy areas for pets on the west side. My fault for not saying we had our dog with us.
+We settled in to room #107, the bed was very comfortable. But when we went into the bathroom there was water seeping up through the laminate flooring. We also noticed the smoke detector hanging out of the wall. I went to the front desk but they were very busy, so we left for our appointment. On return, the same clerk was there and changed our room to an ADA room first floor at my request. #127. It was clean, and the smoke detector looked functional, but the bed was not as comfy. But, there was much less road noise. Good water pressure in the shower.
+The next day on check out, a very nice lady on the front desk was very pleasant and helpful. I requested a reduction in room rate because it was not what we had reserved plus had to...Let me start by reminding everyone that many places in Houston are still recovering from the devastating floods from the hurricane, summer of 2017. it's only been a little over 5 months.On arrival the girl at the desk was very helpful, pleasant, and efficient! We are Redi Card members and had made our reservations online. I was not happy with the location of the first room (on the east side), and she quickly changed it. There are more grassy areas for pets on the west side. My fault for not saying we had our dog with us.We settled in to room #107, the bed was very comfortable. But when we went into the bathroom there was water seeping up through the laminate flooring. We also noticed the smoke detector hanging out of the wall. I went to the front desk but they were very busy, so we left for our appointment. On return, the same clerk was there and changed our room to an ADA room first floor at my request. #127. It was clean, and the smoke detector looked functional, but the bed was not as comfy. But, there was much less road noise. Good water pressure in the shower.The next day on check out, a very nice lady on the front desk was very pleasant and helpful. I requested a reduction in room rate because it was not what we had reserved plus had to change due to leaking, and she gave me a $25 credit on my card. So, I can't say enough about how well these Red Roof employees went to make our stay acceptable! Always pet friendly. Coffee, tea, and packaged pastries in the a.m.The location is right off I-10 west in a business area. Very pretty. We had lunch at Fred's Cafe, a ways down the service road, next to the US Post Office. They are open for breakfast and lunch only. Check them out!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Sophia W, General Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Let me start by reminding everyone that many places in Houston are still recovering from the devastating floods from the hurricane, summer of 2017. it's only been a little over 5 months.
+On arrival the girl at the desk was very helpful, pleasant, and efficient! We are Redi Card members and had made our reservations online. I was not happy with the location of the first room (on the east side), and she quickly changed it. There are more grassy areas for pets on the west side. My fault for not saying we had our dog with us.
+We settled in to room #107, the bed was very comfortable. But when we went into the bathroom there was water seeping up through the laminate flooring. We also noticed the smoke detector hanging out of the wall. I went to the front desk but they were very busy, so we left for our appointment. On return, the same clerk was there and changed our room to an ADA room first floor at my request. #127. It was clean, and the smoke detector looked functional, but the bed was not as comfy. But, there was much less road noise. Good water pressure in the shower.
+The next day on check out, a very nice lady on the front desk was very pleasant and helpful. I requested a reduction in room rate because it was not what we had reserved plus had to...Let me start by reminding everyone that many places in Houston are still recovering from the devastating floods from the hurricane, summer of 2017. it's only been a little over 5 months.On arrival the girl at the desk was very helpful, pleasant, and efficient! We are Redi Card members and had made our reservations online. I was not happy with the location of the first room (on the east side), and she quickly changed it. There are more grassy areas for pets on the west side. My fault for not saying we had our dog with us.We settled in to room #107, the bed was very comfortable. But when we went into the bathroom there was water seeping up through the laminate flooring. We also noticed the smoke detector hanging out of the wall. I went to the front desk but they were very busy, so we left for our appointment. On return, the same clerk was there and changed our room to an ADA room first floor at my request. #127. It was clean, and the smoke detector looked functional, but the bed was not as comfy. But, there was much less road noise. Good water pressure in the shower.The next day on check out, a very nice lady on the front desk was very pleasant and helpful. I requested a reduction in room rate because it was not what we had reserved plus had to change due to leaking, and she gave me a $25 credit on my card. So, I can't say enough about how well these Red Roof employees went to make our stay acceptable! Always pet friendly. Coffee, tea, and packaged pastries in the a.m.The location is right off I-10 west in a business area. Very pretty. We had lunch at Fred's Cafe, a ways down the service road, next to the US Post Office. They are open for breakfast and lunch only. Check them out!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r610294517-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>610294517</t>
+  </si>
+  <si>
+    <t>08/25/2018</t>
+  </si>
+  <si>
+    <t>Fabulous stay!!</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at the Red Roof last night. It was totally unexpected because I didn't realize how spacious and clean the rooms are! The front desk staff is really friendly and made my stay even better! I was surprised by the fact that the hotel contained both a business and a fitness center. Definitely will come back!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r609401546-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>609401546</t>
+  </si>
+  <si>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>Clean rooms!</t>
+  </si>
+  <si>
+    <t>My husband and I were pleasantly surprised with the quality and price of this Red Roof Hotel.Great value for money. Most of all it was clean and comfortable. There was a microwave, refrigerator, and a safe in our room.I will stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Sophia W, General Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>My husband and I were pleasantly surprised with the quality and price of this Red Roof Hotel.Great value for money. Most of all it was clean and comfortable. There was a microwave, refrigerator, and a safe in our room.I will stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r608451417-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>608451417</t>
+  </si>
+  <si>
+    <t>08/20/2018</t>
+  </si>
+  <si>
+    <t>Surprised!</t>
+  </si>
+  <si>
+    <t>It is was a nice hotel with good service for the price. Good location and great tasting coffee. Rooms were very clean and comfortable. Had remote control issues and took it to the front desk.They resolved it quickly. Great Housekeeping staff! Would highly recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>It is was a nice hotel with good service for the price. Good location and great tasting coffee. Rooms were very clean and comfortable. Had remote control issues and took it to the front desk.They resolved it quickly. Great Housekeeping staff! Would highly recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r607366574-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>607366574</t>
+  </si>
+  <si>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I've stayed at many hotels but here at the Red Roof Plus the services was beyond great. Managment and staff really know how to welcome guest.My room was very clean with a fresh smell. My bed was very comfortable the housekeeping staff really did a great job in cleaning. I would recommend the Red Roof Plus to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've stayed at many hotels but here at the Red Roof Plus the services was beyond great. Managment and staff really know how to welcome guest.My room was very clean with a fresh smell. My bed was very comfortable the housekeeping staff really did a great job in cleaning. I would recommend the Red Roof Plus to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r583774291-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>583774291</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>A good place to stay</t>
+  </si>
+  <si>
+    <t>I was in Houston for a meeting starting early the next morning so I was looking for a place to sleep for the night.  The hotel was what I needed. Inexpensive, close to the meeting, and relatively clean.  I did not like being on the first floor and I don't love exterior access so if I were to stay again I would ask for a room on the second floor.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Sophia W, General Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded May 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2018</t>
+  </si>
+  <si>
+    <t>I was in Houston for a meeting starting early the next morning so I was looking for a place to sleep for the night.  The hotel was what I needed. Inexpensive, close to the meeting, and relatively clean.  I did not like being on the first floor and I don't love exterior access so if I were to stay again I would ask for a room on the second floor.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r581048994-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>223172</t>
-  </si>
-  <si>
     <t>581048994</t>
   </si>
   <si>
@@ -171,13 +342,13 @@
     <t>Fantastic stay</t>
   </si>
   <si>
-    <t>I had a wonderful stay. As soon as I entered the building you can smell the coffee which was a good thing because I had a long drive and it woke me up. The staff was friendly, with smiling faces. Ms latrina was so helpful. Room was clean ,cold and smelled Pleasant. Thank you Red Roof for such a great day</t>
+    <t>I had a wonderful stay. As soon as I entered the building you can smell the coffee which was a good thing because I had a long drive and it woke me up. The staff was friendly, with smiling faces. Ms latrina was so helpful. Room was clean ,cold and smelled Pleasant. Thank you Red Roof for such a great dayMoreShow less</t>
   </si>
   <si>
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
+    <t>I had a wonderful stay. As soon as I entered the building you can smell the coffee which was a good thing because I had a long drive and it woke me up. The staff was friendly, with smiling faces. Ms latrina was so helpful. Room was clean ,cold and smelled Pleasant. Thank you Red Roof for such a great dayMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r580939066-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
@@ -195,9 +366,6 @@
     <t>My family and I are frequent guests and always have wonderful stays. The rooms are spacious, comfortable, and clean - perfect for a family of four. Renovations and change of management have improved this property even more. Thank you to the staff for all of your hard work, we cannot wait to see you next time!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Sophia W, General Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded May 18, 2018</t>
   </si>
   <si>
@@ -222,9 +390,6 @@
     <t>The room was nice and clean.The staff was friendly and helpful.I will definitely stay here again.This location is away from the congestion and lower class clientele that surround most other hotels in the area.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Sophia W, General Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded May 10, 2018</t>
   </si>
   <si>
@@ -234,6 +399,48 @@
     <t>The room was nice and clean.The staff was friendly and helpful.I will definitely stay here again.This location is away from the congestion and lower class clientele that surround most other hotels in the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r578822243-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>578822243</t>
+  </si>
+  <si>
+    <t>A Little Disappointed</t>
+  </si>
+  <si>
+    <t>The employees were really nice but I was a little disappointed with several things.1 - The hot water was barely warm2 - The TV remote was basically usesless3 - I arrived for a quite breakfast at 8:30am on Sunday morning and there was nothing left!4 - I tried to get a cup of filtered water, but the machine was not working!5 - I entered a complaint note on Red Roof's web site over 24 hours ago.  And guess what I heard back.....crickets.....I usually trust tripadvisor reviews, but I get burned this time!MoreShow less</t>
+  </si>
+  <si>
+    <t>The employees were really nice but I was a little disappointed with several things.1 - The hot water was barely warm2 - The TV remote was basically usesless3 - I arrived for a quite breakfast at 8:30am on Sunday morning and there was nothing left!4 - I tried to get a cup of filtered water, but the machine was not working!5 - I entered a complaint note on Red Roof's web site over 24 hours ago.  And guess what I heard back.....crickets.....I usually trust tripadvisor reviews, but I get burned this time!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r575854693-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>575854693</t>
+  </si>
+  <si>
+    <t>04/26/2018</t>
+  </si>
+  <si>
+    <t>Wonderful Stay</t>
+  </si>
+  <si>
+    <t>From the entrance door to the room the staff here made me feel like I was home. From the front desk to the housekeeping staff smiles and warm greeting. Each time I stay they all go above and beyond to make sure my stay was comfortable. I live for the hot fresh coffee that is served all day in the lobby. My room was very clean and very fresh and comfortable. I will always return to this location it's my home away from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Sophia W, General Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded April 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2018</t>
+  </si>
+  <si>
+    <t>From the entrance door to the room the staff here made me feel like I was home. From the front desk to the housekeeping staff smiles and warm greeting. Each time I stay they all go above and beyond to make sure my stay was comfortable. I live for the hot fresh coffee that is served all day in the lobby. My room was very clean and very fresh and comfortable. I will always return to this location it's my home away from home.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r566174494-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -249,9 +456,6 @@
     <t>I am a Harvey victim and I have been staying here for 6 months.  The employees here are wonderful from the General Manager, the front desk, maintenance and housekeepers. I have always been greeted every day with a smile and I am asked if there is anything I need. Everyone here are attentive,caring and helpful.  The rooms are spacious with comfortable beds.  The hotel has been going through some remodeling and there has been many upgrades and improvements.  This hotel is pet friendly and have a well maintained grass filled grounds that surrounds the hotel.  The parking spaces are spacious so larger vehicles can fit comfortably.  The hotel is very clean.  Housekeepers here take great pride in their jobs daily and that is evident throughout the hotel.  The employees here have a can do attitude and I do not believe the word no is in their vocabulary.  The hotel is located near the freeway very close to restaurants and shopping, but still remains in a quiet location with little noise. I will definitely stay here again and again.MoreShow less</t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
     <t>Sophia W, General Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded April 3, 2018</t>
   </si>
   <si>
@@ -279,12 +483,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t>Sophia W, General Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded May 8, 2018</t>
-  </si>
-  <si>
-    <t>Responded May 8, 2018</t>
-  </si>
-  <si>
     <t>Pleasantly surprised very nice and clean.Really did not expect much from an economy hotel.First thing I notice was the fresh smell in lobby and as I entered my room was impeccable.Will definitely be my hotel of choice when coding Houston. More</t>
   </si>
   <si>
@@ -309,6 +507,33 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r487611528-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>487611528</t>
+  </si>
+  <si>
+    <t>compared to other red roofs in houston , yuk!</t>
+  </si>
+  <si>
+    <t>shady shady shady, bad driveway with pot holes, rooms are small and under equipped but the bathroom was nice with good lighting.  no breakfast....staff was friendly but not very helpful, had planned to stay longer but I couldn't do it with the heavy price tag...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r483490578-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>483490578</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t>I loved it !!!</t>
+  </si>
+  <si>
+    <t>Everything was great from the lobby to the beautiful room.I always stay here because I love the area. It's always clean, its always smells amazing and the staff treats me just right. Recommend to anyone around .</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r481900416-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -351,6 +576,36 @@
     <t>I had great stay. My room was clean and it smelled awesome from the lobby all the way to the room I stayed in.They also have hot coffee witch was utilized for me since I had to work day and night. I will definitely be going back.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r481376703-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>481376703</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family Time </t>
+  </si>
+  <si>
+    <t>I flew into Houston to spend some family time and the hotel that I stayed in was great. The room were clean it smelled clean and thats one of the things that Im able to notice quite well, the lobby was also very lovely and clean, and the service was good.I would definitely recommend to others.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r481369782-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>481369782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vacation with Friends </t>
+  </si>
+  <si>
+    <t>My stay at the Red Roof Plus was amazing.I was amazed on how clean the rooms were. They beds were made well, the restrooms were spotless, and the room smelled cleaned. I would recommend to anybody. Thank You for a great stay Red Roof Plus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r474811883-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -369,9 +624,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r474806097-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -396,6 +648,42 @@
     <t xml:space="preserve">A well spend night thanks to the staff and manager that made my stay a great experience. I would more than gladly recommend to any guest with plans of vacations, business, etc. Thankful for the first time experience well spend. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r473425416-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473425416</t>
+  </si>
+  <si>
+    <t>04/07/2017</t>
+  </si>
+  <si>
+    <t>My first time staying at a Red Roof Plus I really enjoyed my stay. The rooms were nice and clean and the beds were very comfortable. You can tell the staff goes above and beyond to accommodate the guest. I fall in love with the lobby its a look I've never seen in a Red Roof. Overall the location was just where I needed to be. I will be making this my home away from home when I travel to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Natty R, Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>My first time staying at a Red Roof Plus I really enjoyed my stay. The rooms were nice and clean and the beds were very comfortable. You can tell the staff goes above and beyond to accommodate the guest. I fall in love with the lobby its a look I've never seen in a Red Roof. Overall the location was just where I needed to be. I will be making this my home away from home when I travel to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r473422616-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473422616</t>
+  </si>
+  <si>
+    <t>Friendly staff</t>
+  </si>
+  <si>
+    <t>I love coming here Mary is very helpful I asked about good food close by and she sent me to a great pizza place down the rd the room was great not old at all very clean and right off I10 not noisy at all clean gym and helpful lady great with directions and petsMoreShow less</t>
+  </si>
+  <si>
+    <t>I love coming here Mary is very helpful I asked about good food close by and she sent me to a great pizza place down the rd the room was great not old at all very clean and right off I10 not noisy at all clean gym and helpful lady great with directions and petsMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r467918249-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -429,12 +717,6 @@
     <t>Me and my husband are in town on business we were put in an outside facing room we requested a upstairs room... really dirty bath tub &amp; remote to tv was broken no towels and ice bucket was placed on the bathroom back of toilet. We asked to move rooms the front desk attendant asked me to follow her to show them what was wrong  she prompted the housekeeper to come alone then she explained to my husband and i that the tub was stained but was cleaned i guess the hair and dirt was a stain  she put us in the wrong room to begin with when she moved is we ran into another brown couple said that she did them the same be careful here.MoreShow less</t>
   </si>
   <si>
-    <t>Natty R, Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded April 10, 2017</t>
-  </si>
-  <si>
-    <t>Responded April 10, 2017</t>
-  </si>
-  <si>
     <t>Me and my husband are in town on business we were put in an outside facing room we requested a upstairs room... really dirty bath tub &amp; remote to tv was broken no towels and ice bucket was placed on the bathroom back of toilet. We asked to move rooms the front desk attendant asked me to follow her to show them what was wrong  she prompted the housekeeper to come alone then she explained to my husband and i that the tub was stained but was cleaned i guess the hair and dirt was a stain  she put us in the wrong room to begin with when she moved is we ran into another brown couple said that she did them the same be careful here.More</t>
   </si>
   <si>
@@ -456,6 +738,45 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r462421138-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462421138</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>Excellent Value-- WOW!</t>
+  </si>
+  <si>
+    <t>Very Impressed! From the time I checked in Latrina  was awesome at the front desk as well as the personnel that cleaned the rooms! Clean Room, Flat screen T.V. , Internet was fast! The price BEST in Houston, easy to get too! Save some money and go get a Steak!! Thank you Red Roof!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r462027838-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462027838</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>Awesome service!!!!!</t>
+  </si>
+  <si>
+    <t>Maria was the person who helped at the front desk!!! Great service from her!!! My family stayed here for a week and received excellent service from everyone!!! I would stay here again and recommend it !!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Natty R, Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded March 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2017</t>
+  </si>
+  <si>
+    <t>Maria was the person who helped at the front desk!!! Great service from her!!! My family stayed here for a week and received excellent service from everyone!!! I would stay here again and recommend it !!! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r460921968-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -513,15 +834,48 @@
     <t>Checking in was a breeze, the room was clean and spacious, the wifi pretty fast, good for business. A lady named Trina at the front desk made sure that my reservation was in order, and I really appreciated the fact that she knew her stuff. Going back for sure.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r460568251-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460568251</t>
+  </si>
+  <si>
+    <t>02/16/2017</t>
+  </si>
+  <si>
+    <t>Very well priced...</t>
+  </si>
+  <si>
+    <t>I came here on a visit from San Antonio. The area is really quiet and safe. Hotel staff was very helpful. Room looked nice and had a clean smell to it. Breakfast, however could be a bit more substantial.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>I came here on a visit from San Antonio. The area is really quiet and safe. Hotel staff was very helpful. Room looked nice and had a clean smell to it. Breakfast, however could be a bit more substantial.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r460560257-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460560257</t>
+  </si>
+  <si>
+    <t>Why I keep coming back.</t>
+  </si>
+  <si>
+    <t>I've been a guest at this hotel quite a few times over the last few years, and besides the excellent location (right off I-10), I am just thoroughly pleased by the way my stays always run so smoothly. The staff is friendly, attentive, and more than willing to go that extra mile. The front desk manager Trina has been a constant and friendly face all this time, and she assures my stays are always pleasant. Thank you so much for your competence!MoreShow less</t>
+  </si>
+  <si>
+    <t>I've been a guest at this hotel quite a few times over the last few years, and besides the excellent location (right off I-10), I am just thoroughly pleased by the way my stays always run so smoothly. The staff is friendly, attentive, and more than willing to go that extra mile. The front desk manager Trina has been a constant and friendly face all this time, and she assures my stays are always pleasant. Thank you so much for your competence!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r460519352-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
     <t>460519352</t>
   </si>
   <si>
-    <t>02/16/2017</t>
-  </si>
-  <si>
     <t>Road trip just a bed</t>
   </si>
   <si>
@@ -558,6 +912,42 @@
     <t>my company booked us a room at Red Roof Plus Energy Corridor and upon arrival my partners and I were greeted at the reception by very friendly staff who made us feel welcome, our rooms looked excellent very clean beds were very nicely made and comfortable we all slept great we all agreed it was a very convenient location close to our office and in the morning grabbing something to go before work was wonderful this is our new favorite location to stay from now on for my business partners and me thank the staff members for making us feel at home.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r446357987-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>446357987</t>
+  </si>
+  <si>
+    <t>12/23/2016</t>
+  </si>
+  <si>
+    <t>Excellent Stay!</t>
+  </si>
+  <si>
+    <t>Stayed here for one night while on business within the Energy Corridor, and didn't have any issues. The room itself on the third floor seemed to have been recently renovated, which allowed for me to sleep soundly through the night despite having I-10 outside of my window. Even with the interstate traffic at night, I really couldn't hear the traffic noise. The same can be said of the adjoining rooms- couldn't hear a thing. Even though the room was very clean, the most surprising thing about this Red Roof Inn may be its location. Its located within an area of corporate entities and other offices, which proves to be a good thing. I felt amazingly secure within this area, in which I was able to put in some good miles within the early morning hours and not having to worry about questionable characters bothering me. The downside is that you'll have to drive to find restaurant accomodations.Good customer service, clean and secure environment at a good rate ($60+). Who could ask for anything more?MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for one night while on business within the Energy Corridor, and didn't have any issues. The room itself on the third floor seemed to have been recently renovated, which allowed for me to sleep soundly through the night despite having I-10 outside of my window. Even with the interstate traffic at night, I really couldn't hear the traffic noise. The same can be said of the adjoining rooms- couldn't hear a thing. Even though the room was very clean, the most surprising thing about this Red Roof Inn may be its location. Its located within an area of corporate entities and other offices, which proves to be a good thing. I felt amazingly secure within this area, in which I was able to put in some good miles within the early morning hours and not having to worry about questionable characters bothering me. The downside is that you'll have to drive to find restaurant accomodations.Good customer service, clean and secure environment at a good rate ($60+). Who could ask for anything more?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r442243585-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>442243585</t>
+  </si>
+  <si>
+    <t>12/05/2016</t>
+  </si>
+  <si>
+    <t>Designer at Engineer.com</t>
+  </si>
+  <si>
+    <t>The stay was great very nice room hope to stay one more night very clean and the morning breakfest was nice most of all the way welcome and smiles from all the staff would recommend anyone to stay there Dec. 4-5 Thank you Claudia.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r439189930-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -630,15 +1020,51 @@
     <t>Since we were staying a week we took the cheaper weekly rate. We were not informed upon check-in that with the weekly rate we would only get cleaning service M,W,F. One day when maid came in she made up the bed (no clean sheets) but did not empty trash can by the door nor did she sweep the room. The breakfast was bad. Mon &amp; Tues they had no lids for the coffee cups. No fruit 2 days. The water tasted really bad. No fruit juice.When I informed the front desk manage she did give us a comp day for the problems.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r436098190-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436098190</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>Good things but major issue</t>
+  </si>
+  <si>
+    <t>Many things were good. I liked the flooring and comfort and decor. It was quiet and clean.A major issue in my room was the mattress. I didn't use it until I went to bed after midnight. Then discovered it was broken or collapsed in one side. My wife was on the good side. It seemed like sleeping on the edge of the abyss. The front desk took a note. Hopefully they will replace the mattress in 229.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Many things were good. I liked the flooring and comfort and decor. It was quiet and clean.A major issue in my room was the mattress. I didn't use it until I went to bed after midnight. Then discovered it was broken or collapsed in one side. My wife was on the good side. It seemed like sleeping on the edge of the abyss. The front desk took a note. Hopefully they will replace the mattress in 229.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r434306736-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>434306736</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t>Loved it!!!</t>
+  </si>
+  <si>
+    <t>Everything was great from the staff to the beautiful room... When I'm in town I always stay here I love the area... Its was clean and smelled awesome... Staff always greet me with a smile which makes my check in quick and easyMoreShow less</t>
+  </si>
+  <si>
+    <t>Everything was great from the staff to the beautiful room... When I'm in town I always stay here I love the area... Its was clean and smelled awesome... Staff always greet me with a smile which makes my check in quick and easyMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r434236630-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
     <t>434236630</t>
   </si>
   <si>
-    <t>11/03/2016</t>
-  </si>
-  <si>
     <t>Very nice hotel</t>
   </si>
   <si>
@@ -663,9 +1089,6 @@
     <t>Great Value for your buck! As soon as i arrived i was greeted by front desk. Hotel is clean, nice renovated rooms, staff is friendly and you can't beat the price. Will definitely recommend to friends and family.MoreShow less</t>
   </si>
   <si>
-    <t>November 2016</t>
-  </si>
-  <si>
     <t>Great Value for your buck! As soon as i arrived i was greeted by front desk. Hotel is clean, nice renovated rooms, staff is friendly and you can't beat the price. Will definitely recommend to friends and family.More</t>
   </si>
   <si>
@@ -693,6 +1116,39 @@
     <t>I had a great stay! My room was clean, the staff at the front were very friendly I checked in late and expected no one to be nice in the middle of the night but they were awesome! Also they always have hot coffee!!! I know my new spot!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r423146342-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>423146342</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t>Terrible experience! The night shift at the front desk, John, made it the best he could.</t>
+  </si>
+  <si>
+    <t>We arrived at our room and it didn't have a shower curtain so I tried to call the front desk and the phone didn't work. It was very late at night and there were loud people outside our room. I walked to the front desk and John was working. He upgraded us and made a note on our reservation that we were staying another night for the morning crew so they wouldn't check us out. The next night I went to open the door and it wouldn't let me in. I went back to the front desk and John was working again. He said their was a note for him to call the manager. He called and found out that the morning staff still checked us out, even though he clearly put that we were staying again, and all of our belongings were downstairs and we had to unpack again. John managed to get us 1/2 off the second night. He did his job and went above and beyond for us. Aside from him being generous, compassionate, knowledgeable, and understanding I would have been completely dissatisfied with the stay. John is the only reason I gave some positive reviews. He deserves a raise.MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived at our room and it didn't have a shower curtain so I tried to call the front desk and the phone didn't work. It was very late at night and there were loud people outside our room. I walked to the front desk and John was working. He upgraded us and made a note on our reservation that we were staying another night for the morning crew so they wouldn't check us out. The next night I went to open the door and it wouldn't let me in. I went back to the front desk and John was working again. He said their was a note for him to call the manager. He called and found out that the morning staff still checked us out, even though he clearly put that we were staying again, and all of our belongings were downstairs and we had to unpack again. John managed to get us 1/2 off the second night. He did his job and went above and beyond for us. Aside from him being generous, compassionate, knowledgeable, and understanding I would have been completely dissatisfied with the stay. John is the only reason I gave some positive reviews. He deserves a raise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r419349994-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>419349994</t>
+  </si>
+  <si>
+    <t>09/16/2016</t>
+  </si>
+  <si>
+    <t>Stayed close to where concert was being held.</t>
+  </si>
+  <si>
+    <t>Single woman, felt safe when I came in very late from a concert in Katy Tx.  Staff was very nice and helped me with checking in.  Room was clean and didn't hear everyone checking out in the morning. Will stay there again.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r417751606-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -744,6 +1200,33 @@
     <t xml:space="preserve">Came into the hotel early due to my flight coming in early and the front desk lady Latrina accommodated me with an early check in. The rooms were clean and spacious and there was breakfast in the morning. Also the young lady at, night Karen was helpful with helping me find directions to the new waterpark. I will surely be staying at the red roof Inn again. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r412963146-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>412963146</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel , The front desk clerks are all smiles when I was greeted in. With my bedroom I felt very comfortable I was very pleased it's a recommended hotel. Love the high maintenance kept in my room if there ever was a problem it got fixed as soon as possible </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r412354102-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>412354102</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t>CUSTOMER SERVICE</t>
+  </si>
+  <si>
+    <t>My stay at the red roof inn was awesome.   ONE thing I really appreciated was the customer service I received. The staff was very knowledgeable about places in the area. They also gave easy directions on how to get around the area.  Another thing I enjoyed was how their housekeeper kept  my room clean and fresh towels daily. Thanks Again Red Roof.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r408216672-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -795,6 +1278,39 @@
     <t>Every time I am in town I stay at this hotel.  Not only is it updated and modern but it is conveniently located to everywhere I need to be.  The staff is top notch too!  There is no request too small and they always wear the biggest smiles!  The manager Latrina is amazing and always takes great care of me each and every time.  Each time I return it seems that they have updated and remodeled a new part of the hotel.  They offer a nice breakfast in the a.m. and I get a lot of use out of their fitness room in the evenings! You can't go wrong choosing this hotel for your stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r405210893-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>405210893</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t>My Red Roof Experience</t>
+  </si>
+  <si>
+    <t>My stay at this Red Roof Inn was great! Great room for a great price....Thanks to Christina H. I strongly recommend getting a room here...it includes a continental breakfast, has a descent amount of parking spaces, and is off of I-10 past highway 6 (westbound side).</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r404595911-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>404595911</t>
+  </si>
+  <si>
+    <t>08/12/2016</t>
+  </si>
+  <si>
+    <t>A thank you</t>
+  </si>
+  <si>
+    <t>I've been at the redroof since July 25,2016 thru booking.com. now I'm going thru red roof since July 28,2016 because the mangers Ms.Latrina goes more than above to accommodate my need to satisfy she had a great spirt, she's a people person even if a bad day she makes it a better one. I've enjoyed my stay wich I will b here all month. The rooms are very nice spacious and clean. I don't have any complaints I rate this hotel very highly satisfied because not only is it a quiet comfortable place to stay the staff is also awesome. I wanna thx the Manger staff for being there to give me a great rate and I would recommend u guys anytime. Also the other Manger  think her name is Ms.Net has a great heart and try to help if u need a weekly are monthly rate.                          Thank you,                  Ms.Patrice WilliamsMoreShow less</t>
+  </si>
+  <si>
+    <t>I've been at the redroof since July 25,2016 thru booking.com. now I'm going thru red roof since July 28,2016 because the mangers Ms.Latrina goes more than above to accommodate my need to satisfy she had a great spirt, she's a people person even if a bad day she makes it a better one. I've enjoyed my stay wich I will b here all month. The rooms are very nice spacious and clean. I don't have any complaints I rate this hotel very highly satisfied because not only is it a quiet comfortable place to stay the staff is also awesome. I wanna thx the Manger staff for being there to give me a great rate and I would recommend u guys anytime. Also the other Manger  think her name is Ms.Net has a great heart and try to help if u need a weekly are monthly rate.                          Thank you,                  Ms.Patrice WilliamsMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r403355849-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -840,6 +1356,39 @@
     <t>Room had peanut shell on floor by door and empty Gatorade bottle by chair. You're right by the highway so I expect to hear it, but it sounded like the cars were driving right thru our room as well as everyone who walked by. Might as well have been sleeping outside! I sleep deeply very easy. Not here.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r386728541-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>386728541</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Great Value and Friendly Service</t>
+  </si>
+  <si>
+    <t>Red Roof Inn PLUS is a great value for money! The location is pretty accesible, specially if you are going to be in the Katy area. It is an upgrade to a regular Red Roof Inn and it's pet friendly! They do not charge you a pet fee!The rooms are very clean and the door is pretty modern. They have a little breakfast area and hot coffee and water thru the night.The staff is very friendly and totally understand the idea of customer service, they bend over backwards to help you and make you feel at home!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r374521698-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>374521698</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>Staff member Christina is a life saver!</t>
+  </si>
+  <si>
+    <t>Christina really goes above and beyond to ensure renters comfort. She suggested great places to eat, upgraded our room at no charge and even assisted us in adjusting our days booked.  The hotel unfortunately lacked a pool, real breakfast, working coffee machines (in room) and all night I kept hearing doors slamming, toilet/fridge running...making it difficult to sleep. The lobby area isn't inviting which limits you to your room. However, Christina made it as comfortable for us as possible. She's a true gem!</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r374043407-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -855,9 +1404,6 @@
     <t>I stayed a couple of nights.Pros:-Updated Interior-Not expensive (but not extended stay prices)-Clean rooms-Ironing board and Iron in room-Quiet-Small exercise room.Cons:-The emergency exit doorknob on the third floor was loose and broken. You couldn't open it if you were entering the third floor.-No pool.-Coffee maker in room was missing a piece.-Toilet ran longer than it should have.-No plug outlet on the left side of the bed.-The ice bucket and cups were in the BATHROOM.-Only 30 channels of t.v.-The complimentary lobby breakfast consisted of mini muffins and cookies. No milk. Orange juice, coffee and tea were the choices.-The internet kept dropping every minute. So I had to use my phone. Couldn't use my laptop. Can't get work done here!I expected a little more from a Red Roof Plus, not just a new interior.MoreShow less</t>
   </si>
   <si>
-    <t>May 2016</t>
-  </si>
-  <si>
     <t>Trina S, Front Office Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded May 19, 2016</t>
   </si>
   <si>
@@ -912,6 +1458,36 @@
     <t>I arrived in Houston last week with my service dog, Sadie and checked into the hotel early.  I had difficulties that meant I would be unable to get back to the hotel overnight.  I was able to make arrangements with the night auditor, Christina to make sure my dog had water, food and bathroom breaks during my absence.  Not only did Christina set it up with the overnight security person Karen, to check on my dog, but the two of them made sure Sadie was given several walks to relieve herself.  I stay in Red Roof Inns often due to the fact that they are dog-friendly, but this is the most dog-friendly action that could be taken by anyone, anywhere.  This is the kind of service that is not even expected at a five-star hotel, but the Red Roof staff here, made sure everything was taken care of for me.  INCREDIBLE.  When I tried to offer the dog-walker pay, she said the hotel does not allow her to take tips from guests.  Dog-walking is never free, but this Red Roof Inn, made sure Sadie had several walks overnight.  I am extremely grateful for these actions by Christina and Karen on behalf of Red Roof Inn.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r370544265-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>370544265</t>
+  </si>
+  <si>
+    <t>05/05/2016</t>
+  </si>
+  <si>
+    <t>Friendly staff, great stay.</t>
+  </si>
+  <si>
+    <t>Always a pleasure staying at this Red Roof. The rooms are spacious and updated, love the free wifi, and the location is easily accessible to I-10, which makes getting around the city much easier. What really makes the stay though, is the front desk staff. LOVE how courteous and ready to help LaTrina is, always greets me with a smile and that's much appreciated. Karen and Christina also stand out in my mind. Great ladies! Definitely will be back.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r370392779-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>370392779</t>
+  </si>
+  <si>
+    <t>I loved it!</t>
+  </si>
+  <si>
+    <t>Great experience!! Clean clean rooms! Newly remodeled! I stay here everytime I'm on this side of town! And will definitely be back to stay again like always!! I just love staying here! It's such a clean safe environment!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r368253777-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -924,9 +1500,6 @@
     <t>I stay at this property (222) regularly and my most recent stay was very enjoyable.  LaTrina at the Front Desk greeted me with her usual smile and welcome.  She is always very attentive and she makes sure everything is properly and professionally handled.  My room was very clean and everything was neat and in order as expected.  I utilized the complimentary breakfast as well as the free wifi.  I will definitely be returning!!!</t>
   </si>
   <si>
-    <t>April 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r364645316-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -960,6 +1533,36 @@
     <t>I had the good fortune of stopping at the Red Roof Plus on I-10 and Park Place while passing through Houston , TX on business. I was looking for a cheap clean hotel to get a few hours of sleep and proceed on my drive. What I got exceeded all my expectations. The staff was super friendly and attentive. The hotel was clean and appeared to be newly remodeled. The bed was amazing, and the room was spacious with a work station. The service, facility and cost ($59.00 + tax) is an INCREDIBLE DEAL!!!!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r364423296-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>364423296</t>
+  </si>
+  <si>
+    <t>Super Staff!</t>
+  </si>
+  <si>
+    <t>I can't say enough about how great the Staff at this location is. The manager, Chase, is very attentive to the guest needs.The stay was great! The rooms are super clean. The place is all new and updated, and the atmosphere is very relaxed.I would recommend this location to everyone. It's convenient to the offices at the energy corridor and there are plenty of good resturants not far....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r363571457-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>363571457</t>
+  </si>
+  <si>
+    <t>04/12/2016</t>
+  </si>
+  <si>
+    <t>Hot water....What hot water?</t>
+  </si>
+  <si>
+    <t>So I called ahead &amp; spoke with a night lady named Karen to see if I could check in early (4am) and post over to 11am the NEXT MORNING. Some hotels are courteous in this respect to night/overnight travelers if there is occupancy availability. On the phone it was "Yes sure. Not a problem come on". Drove 21 miles passed several other hotels I've stayed in the past to avail this property's laundry room. (Only Red Roof in Houston with one). We checked in after reconfirming check out for 11 the NEXT DAY. At 10:40 THE SAME DAY housekeeping beat out door down waking out of sleep saying check out time. Totally lied to &amp; misled by the night girl Karen. On top of that the day shift desk person &amp; manager were totally rude &amp; shrugged off responsibility for it &amp; made no attempt to honor what the girl  told me at check in. On top of that the sign showed 59.99 rate but was charged 64.00. Explanation: "You're a walk in rate" Ok so since when do hotels penalize you for giving them your business!?!?. Then the shower had luke warm temp water but no hot. Just choose elsewhere if you can. The sign &amp; staff are deceptive. Do not choose this place. Do the Springhill Suites, Or Studio 6 nearby. Much more honest &amp; better bigger rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>So I called ahead &amp; spoke with a night lady named Karen to see if I could check in early (4am) and post over to 11am the NEXT MORNING. Some hotels are courteous in this respect to night/overnight travelers if there is occupancy availability. On the phone it was "Yes sure. Not a problem come on". Drove 21 miles passed several other hotels I've stayed in the past to avail this property's laundry room. (Only Red Roof in Houston with one). We checked in after reconfirming check out for 11 the NEXT DAY. At 10:40 THE SAME DAY housekeeping beat out door down waking out of sleep saying check out time. Totally lied to &amp; misled by the night girl Karen. On top of that the day shift desk person &amp; manager were totally rude &amp; shrugged off responsibility for it &amp; made no attempt to honor what the girl  told me at check in. On top of that the sign showed 59.99 rate but was charged 64.00. Explanation: "You're a walk in rate" Ok so since when do hotels penalize you for giving them your business!?!?. Then the shower had luke warm temp water but no hot. Just choose elsewhere if you can. The sign &amp; staff are deceptive. Do not choose this place. Do the Springhill Suites, Or Studio 6 nearby. Much more honest &amp; better bigger rooms.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r357377315-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -1011,15 +1614,42 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r352952087-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>352952087</t>
+  </si>
+  <si>
+    <t>03/04/2016</t>
+  </si>
+  <si>
+    <t>Hotel visit review</t>
+  </si>
+  <si>
+    <t>It has been several years, since I visited this hotel. WOW, what a difference! This is a beautiful hotel now. The staff, Claudia, and Mgr. Chase, are some of the best in the business. As a business owner, and prior military, I have stayed all over the world, at some of the most expensive hotels money can buy. This staff is far more professional then the other hotels!!! it was a pleasure!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r352725781-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>352725781</t>
+  </si>
+  <si>
+    <t>03/03/2016</t>
+  </si>
+  <si>
+    <t>Great service, Clean and Quiet rooms</t>
+  </si>
+  <si>
+    <t>First the staff is very professional. The minute I checked I felt right at home. The G.M. Chase is a great guy and very helpful, also treated us like family and not any old customer. They also have a grab-n-go breakfast. From Claudia to Christina to management they show what hospitality is about! Will be back.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r352714993-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
     <t>352714993</t>
   </si>
   <si>
-    <t>03/03/2016</t>
-  </si>
-  <si>
     <t>great staff (latrina and chase) above and beyond kind of service</t>
   </si>
   <si>
@@ -1050,6 +1680,45 @@
     <t>It was a pleasure to stay here. Claudia, the young lady working front desk, was extremely knowledgeable, and very professional. The mgr Chase is a great mgr. With front desk staff like this, I will revisit, and recommend this hotel to others.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r351847343-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>351847343</t>
+  </si>
+  <si>
+    <t>02/29/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disgusted </t>
+  </si>
+  <si>
+    <t>Let me start of by saying, Maria at the front desk was very sweet, she made us feel very welcomed when checking in.
+The room we stayed at and going up the back stairs, the hotel just seemed to be falling apart and dirty. Our room was tiny and didn't smell the best upon entering, we did not have a do not distrub sign, we only had one night stand and very uncomfortable, flat pillows that offered no support. Every towel we used was stained, smelled bad and most had hair in them (some were pubic), both times, the comforter on the bed was stained when we got our room made and the first time when we walked in. The AC unit's writing was faded so bad, I had no idea how to adjust it right because I couldn't read the text on it. The room next door to us was having a party and you could hear everything (we don't blame the hotel for that because we did not notify the front desk)
+We did not have shampoo or anything in our room the first time (thank god I brought my own), when we got one when the room was made, the shampoo tube was covered in soap on the outside before we even touch it.
+I feel like the housecleaning staff do not care and don't check that things are clean before putting them in the room. The...Let me start of by saying, Maria at the front desk was very sweet, she made us feel very welcomed when checking in.The room we stayed at and going up the back stairs, the hotel just seemed to be falling apart and dirty. Our room was tiny and didn't smell the best upon entering, we did not have a do not distrub sign, we only had one night stand and very uncomfortable, flat pillows that offered no support. Every towel we used was stained, smelled bad and most had hair in them (some were pubic), both times, the comforter on the bed was stained when we got our room made and the first time when we walked in. The AC unit's writing was faded so bad, I had no idea how to adjust it right because I couldn't read the text on it. The room next door to us was having a party and you could hear everything (we don't blame the hotel for that because we did not notify the front desk)We did not have shampoo or anything in our room the first time (thank god I brought my own), when we got one when the room was made, the shampoo tube was covered in soap on the outside before we even touch it.I feel like the housecleaning staff do not care and don't check that things are clean before putting them in the room. The towels were one thing I couldn't get over, I wanted to puke from how disgusting it was and I had no choice but to use them. Veryyy upset with our stay here, we were so happy to leave.If you decide to stay here, bring your own towels, sheets, and air freshner. I will not be staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Let me start of by saying, Maria at the front desk was very sweet, she made us feel very welcomed when checking in.
+The room we stayed at and going up the back stairs, the hotel just seemed to be falling apart and dirty. Our room was tiny and didn't smell the best upon entering, we did not have a do not distrub sign, we only had one night stand and very uncomfortable, flat pillows that offered no support. Every towel we used was stained, smelled bad and most had hair in them (some were pubic), both times, the comforter on the bed was stained when we got our room made and the first time when we walked in. The AC unit's writing was faded so bad, I had no idea how to adjust it right because I couldn't read the text on it. The room next door to us was having a party and you could hear everything (we don't blame the hotel for that because we did not notify the front desk)
+We did not have shampoo or anything in our room the first time (thank god I brought my own), when we got one when the room was made, the shampoo tube was covered in soap on the outside before we even touch it.
+I feel like the housecleaning staff do not care and don't check that things are clean before putting them in the room. The...Let me start of by saying, Maria at the front desk was very sweet, she made us feel very welcomed when checking in.The room we stayed at and going up the back stairs, the hotel just seemed to be falling apart and dirty. Our room was tiny and didn't smell the best upon entering, we did not have a do not distrub sign, we only had one night stand and very uncomfortable, flat pillows that offered no support. Every towel we used was stained, smelled bad and most had hair in them (some were pubic), both times, the comforter on the bed was stained when we got our room made and the first time when we walked in. The AC unit's writing was faded so bad, I had no idea how to adjust it right because I couldn't read the text on it. The room next door to us was having a party and you could hear everything (we don't blame the hotel for that because we did not notify the front desk)We did not have shampoo or anything in our room the first time (thank god I brought my own), when we got one when the room was made, the shampoo tube was covered in soap on the outside before we even touch it.I feel like the housecleaning staff do not care and don't check that things are clean before putting them in the room. The towels were one thing I couldn't get over, I wanted to puke from how disgusting it was and I had no choice but to use them. Veryyy upset with our stay here, we were so happy to leave.If you decide to stay here, bring your own towels, sheets, and air freshner. I will not be staying there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r348882525-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348882525</t>
+  </si>
+  <si>
+    <t>02/18/2016</t>
+  </si>
+  <si>
+    <t>IN ALL THERE DISMAY OF A BROKEN TOWER AND TV DIFFICULTIES</t>
+  </si>
+  <si>
+    <t>Claudia made us aware at check in that there were problems with the TV do to the tower being hit,  they didn't charge us for the movie we watched. It was a wonderful stay even without TV.  We ordered room service that was wonderful.  Would recomend to others</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r348198891-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -1095,6 +1764,42 @@
     <t>I have stayed here on numerous occasions and it never disappoints. I know what i'm getting when I book this hotel and that always puts my mind at ease when there are other things to worry about. The general manager Chase and the staff are very accommodating and very personable. I was able to check in early. the rooms are clean and have nice amenities such as a flat screen tvs and wifi  (which is a plus). The breakfast provided in the morning is usually danishes muffins fruit or granola bars, Kind of like a breakfast bar. I will continue to return when I am staying in Houston. There are restaurants close to the hotel but not walking distance.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r333269599-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>333269599</t>
+  </si>
+  <si>
+    <t>12/16/2015</t>
+  </si>
+  <si>
+    <t>Decent hotel, breakfast was not great</t>
+  </si>
+  <si>
+    <t>We stayed there for 10 nights and we were expecting full fledged breakfast because they mention free breakfast while booking. But the breakfast was a simple grab n go kind of thing with tea/coffee and a few muffins. Travelling with kids we required a proper breakfast.The rooms were decent although cleaning staff was not that great. We had to tell them to change sheets specifically. Plus the wifi was really bad in our room and the phone was not working. After complaining several times, no one came to change the phone so everytime we needed some info from the reception, we had to go down stairs.We choose the place because it was close by to what we were visiting.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>We stayed there for 10 nights and we were expecting full fledged breakfast because they mention free breakfast while booking. But the breakfast was a simple grab n go kind of thing with tea/coffee and a few muffins. Travelling with kids we required a proper breakfast.The rooms were decent although cleaning staff was not that great. We had to tell them to change sheets specifically. Plus the wifi was really bad in our room and the phone was not working. After complaining several times, no one came to change the phone so everytime we needed some info from the reception, we had to go down stairs.We choose the place because it was close by to what we were visiting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r331621971-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>331621971</t>
+  </si>
+  <si>
+    <t>12/09/2015</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>I found that the room was clean and they gave me the room early.   I did find that there was not a lot of restaurants within walking distance but get in the car and there were enough to choose from in difference directions</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r329909314-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -1146,6 +1851,36 @@
     <t>Weather stranded us in the area. Found this hotel thru google.com. Glad we did, the price was just what our budget allowed and most importantly it was pet friendly. We've stayed at Red Roofs before but never a plus, we were pleasantly surprised. This hotel was renovated and the upgrades from the standard Red Roofs was very nice, the towels alone made a huge difference. The room was seemed upgraded and we were told they were standard. The bed was comfortable and we all had a good night sleep. Wifi connection was good, stable and FREE. We will gladly and highly recommend your hotel and Red Roof Plus. The staff was very attentive as well. Good job all.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r326282986-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>326282986</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>Good experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business brought me out to the area my assistant booked and I was quite pleased. The hotel staff was friendly and knowledgeable on area and recommendations. Room was clean and spacious. Well lit and nice work area. I'd recommend to colleagues. Thank you for good night stay. Will be sure to return on next call to area. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r325388021-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>325388021</t>
+  </si>
+  <si>
+    <t>11/08/2015</t>
+  </si>
+  <si>
+    <t>Staff needs lessons in customer service</t>
+  </si>
+  <si>
+    <t>Had planned to travel to San Antonio but stayed back in Houston due to bad weather and chose this hotel as a last minute resort. The receptionist was a young guy with an attitude. Very rude and indifferent. The room had roaches and I can see tht there have been the same complaints in earlier reviews but the hotel management doesnt pay heed to them. Bad experience overall.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r324252510-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -1176,9 +1911,6 @@
     <t>The room was very clean and had extra amenities like fridge, microwave, and safe. The staff was very helpful, they do have snack and drink machines onsite. I needed extra towels and they gave me more than plenty. the only thing needed to improve would be the breakfast,  just some chocolate muffins and oatmeal packages and juice or coffee. not alot of choices. but other than that, I would stay again! customer Service was Great!!! and so was the room!!! Price was very reasonable thru bookings. com also!</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r320800562-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -1192,6 +1924,36 @@
   </si>
   <si>
     <t xml:space="preserve">It was my first time staying at a red roof plus, And the hotel was very peaceful. Staff were very polite. Will be returning again when I'm in town. Rooms were clean and spacious enough for myself and my family. The rooms were even renovated which made it even more comfortable for us. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r320537448-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>320537448</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>Peaceful hotel off of I-10</t>
+  </si>
+  <si>
+    <t>1 night stay, my usual hotel was booked along with every other hotel in the area!I was glad to hear Angel's voice when she told me she had a few rooms available.Both front desk women Angel and Angela took care of me, even asking the on staff manager if there was some kind of price reduction I could of have!Though the Hotel is right off of I-10 I couldn't hear the busy interstate.Though it's not a perfect hotel, it met my needs fairly well. Definitely would not cross this place off your list especially if your adventure in Houston is around the area!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r319196208-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>319196208</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>Never experienced a poorer service ever</t>
+  </si>
+  <si>
+    <t>Our Internet did not work from the day we checked in, even though claims were made during booking about free Internet.  Very poor service - we had to fetch our own replacement towels from reception. Linen changed only every 3 days. So called 'free brealfast' was a tea/coffee, pastry (yuck!) and a juice. Front desk staff was exceptionally curt and uncourteous.A definite avoid!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r316461022-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
@@ -1247,6 +2009,48 @@
 The really amazing part of our stay however, was the morning of checkout. During preparation for surgery my sister in law, who is quite heavy, suffered a serious fall and i could not get her out of the bath. We were quite concerned that we would miss her surgical call and that an ambulance would be required to get her up. Additionally she was in pain and feared she had injured her ankle in the fall. Unclothed and slippery - needless to say, she was in a jam! We called the front desk who sent us an "Angel"! Richard came to our rescue! A strong, kind, caring man who treated us with care and great compassion. He lifted her out like she was a mere rag doll and with ease placed her over onto the toilet. After helping me get her dressed and out of the bathroom we realized the injury was serious and he brought a wheelchair and helped me to get her all the way into our truck, saving us the time and expense and her...We came from out of town to stay the night before surgery, at the medical center the next morning. The rooms were ready, clean, well stocked, comfortable, upscale, nice big plasma tv, in good repair and quiet. There was ice and soda available on our floor, the double room was large and the a/c worked really well to quell the Texas heat!The really amazing part of our stay however, was the morning of checkout. During preparation for surgery my sister in law, who is quite heavy, suffered a serious fall and i could not get her out of the bath. We were quite concerned that we would miss her surgical call and that an ambulance would be required to get her up. Additionally she was in pain and feared she had injured her ankle in the fall. Unclothed and slippery - needless to say, she was in a jam! We called the front desk who sent us an "Angel"! Richard came to our rescue! A strong, kind, caring man who treated us with care and great compassion. He lifted her out like she was a mere rag doll and with ease placed her over onto the toilet. After helping me get her dressed and out of the bathroom we realized the injury was serious and he brought a wheelchair and helped me to get her all the way into our truck, saving us the time and expense and her the pain, of an ambulance ride. At the hospital we discovered she had broken all the bones in her ankle and required major surgery! There was NO possible way we could have managed without the blessing of Richard! Thank you Red Roof Inn! We would stay here anytime!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r299719563-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>299719563</t>
+  </si>
+  <si>
+    <t>08/15/2015</t>
+  </si>
+  <si>
+    <t>Excellent all around... Friendly Staff and Great Service</t>
+  </si>
+  <si>
+    <t>I left Baymont Hotel because of all the illegal activities and came to stay at Red Roof Inn. Had the best night sleep since. The staff is friendly and always helpful. The rooms were clean and quiet. Felt very safe in the area. Off of I-10, so it was near to everything. Have already made reservations on my next trip back to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Chase  E, General Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded August 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2015</t>
+  </si>
+  <si>
+    <t>I left Baymont Hotel because of all the illegal activities and came to stay at Red Roof Inn. Had the best night sleep since. The staff is friendly and always helpful. The rooms were clean and quiet. Felt very safe in the area. Off of I-10, so it was near to everything. Have already made reservations on my next trip back to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r299710699-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>299710699</t>
+  </si>
+  <si>
+    <t>Red Roof PLUS+ Houston - Energy Corridor</t>
+  </si>
+  <si>
+    <t>My stay at the Red Roof Inn Energy Corridor in Houston, TX was excellent. The lovely young lady behind the counter Jessica went above and beyond to see that all my needs were met and that my stay was enjoyable. I needed to get some paperwork done and Jessica went out of her way to help me get things done. She was the same way with each and every guest that approached her for their various needs. Jessica's customer service is the reason why I cancelled my reservation at another hotel in Florida and changed it to a Red Roof Inn location.  The lobby was neat organized. My room was a decent size and the bed was comfortable. I highly recommend Red Roof Inn PLUS Energy Corridor to anyone staying in the Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>My stay at the Red Roof Inn Energy Corridor in Houston, TX was excellent. The lovely young lady behind the counter Jessica went above and beyond to see that all my needs were met and that my stay was enjoyable. I needed to get some paperwork done and Jessica went out of her way to help me get things done. She was the same way with each and every guest that approached her for their various needs. Jessica's customer service is the reason why I cancelled my reservation at another hotel in Florida and changed it to a Red Roof Inn location.  The lobby was neat organized. My room was a decent size and the bed was comfortable. I highly recommend Red Roof Inn PLUS Energy Corridor to anyone staying in the Houston area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r298573376-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -1265,12 +2069,6 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t>Chase  E, General Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded August 23, 2015</t>
-  </si>
-  <si>
-    <t>Responded August 23, 2015</t>
-  </si>
-  <si>
     <t>This was my first stay at this location and I picked a winner.  When I go back to Houston it's nice to know where to stay, whether for business or for pleasure.  Angie helped make my stay there very enjoyable from the very first time we met, and Jessica was just as nice and helpful.  It's the best deal in town as far as comfort and amenities go...try it, you'll love it too!!!More</t>
   </si>
   <si>
@@ -1307,9 +2105,6 @@
     <t>From the moment we walked in their friendly staff met us with a smile and was immediately helpful. After a quick check in we entered our clean spacious room. With updated amenities. Large LGHD TV ! After we got settled in we received a call from front desk making sure everything was to our liking. Our stay was comfortable quiet and relaxing. Will definitely visit again! Best in the area for sure. MoreShow less</t>
   </si>
   <si>
-    <t>August 2015</t>
-  </si>
-  <si>
     <t>Chase  E, General Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded August 3, 2015</t>
   </si>
   <si>
@@ -1319,6 +2114,48 @@
     <t>From the moment we walked in their friendly staff met us with a smile and was immediately helpful. After a quick check in we entered our clean spacious room. With updated amenities. Large LGHD TV ! After we got settled in we received a call from front desk making sure everything was to our liking. Our stay was comfortable quiet and relaxing. Will definitely visit again! Best in the area for sure. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r293749731-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>293749731</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Great customer service</t>
+  </si>
+  <si>
+    <t>From the moment I walked in I was greeted by Latrina she accommodated my needs to the room that I needed was very polite not only that the hotel is very updated clean and nice and quiet I extremely suggest that if you come to this side of town or you're even in Houston to stay here best place around!MoreShow less</t>
+  </si>
+  <si>
+    <t>From the moment I walked in I was greeted by Latrina she accommodated my needs to the room that I needed was very polite not only that the hotel is very updated clean and nice and quiet I extremely suggest that if you come to this side of town or you're even in Houston to stay here best place around!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r293346990-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>293346990</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>Awesome place to stay</t>
+  </si>
+  <si>
+    <t>I've stayed at a lot of different tv motels and this one by far is my favorite. Not only are the rooms spacious, clean and comfortable but the staff members actually Care about their guests which is rare in hotels I've found. Latrina at the front desk went above and beyond to meet my needs and for that reason alone I'll be staying here whenever the situation arises. I definitely recommend coming to red roof inn plus in the energy corridor!MoreShow less</t>
+  </si>
+  <si>
+    <t>Chase  E, General Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded July 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2015</t>
+  </si>
+  <si>
+    <t>I've stayed at a lot of different tv motels and this one by far is my favorite. Not only are the rooms spacious, clean and comfortable but the staff members actually Care about their guests which is rare in hotels I've found. Latrina at the front desk went above and beyond to meet my needs and for that reason alone I'll be staying here whenever the situation arises. I definitely recommend coming to red roof inn plus in the energy corridor!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r292816341-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -1328,18 +2165,9 @@
     <t>07/26/2015</t>
   </si>
   <si>
-    <t>Friendly staff</t>
-  </si>
-  <si>
     <t>One of the staff members, Jessica Wofford, was very friendly and made sure we were comfortable, and offered to help us with any troubles we encountered.. The rooms were great and spacious. The rooms were clean room and the hotel offered a sufficent breakfast.MoreShow less</t>
   </si>
   <si>
-    <t>Chase  E, General Manager at Red Roof PLUS+ Houston - Energy Corridor, responded to this reviewResponded July 29, 2015</t>
-  </si>
-  <si>
-    <t>Responded July 29, 2015</t>
-  </si>
-  <si>
     <t>One of the staff members, Jessica Wofford, was very friendly and made sure we were comfortable, and offered to help us with any troubles we encountered.. The rooms were great and spacious. The rooms were clean room and the hotel offered a sufficent breakfast.More</t>
   </si>
   <si>
@@ -1376,6 +2204,42 @@
     <t>After my scathing review of another red roof property I was worried about booking this place but it was chalk and cheese. This place gave excellent service had a helpful receptionist and the rooms were well appointed and clean and modern. No complaints here</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r290563623-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>290563623</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and professional especially Latrina and Angie at the front desk. They went beyond their duty to make sure that my families stay was was pleasurable. Latrina and Angie always has a friendly greeting an a bright smile that just made your day. The house keeping staff were very efficient and courteous at all times.We enjoyed our stay.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r290560877-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>290560877</t>
+  </si>
+  <si>
+    <t>Welcoming and Professional</t>
+  </si>
+  <si>
+    <t>When I arrived I was greeted by the Latrina's friendly smile. She was professional and attentive to my need's. During my stay there Latrina and Angie (both at the front desk) went above and beyond their duty to make sure my needs were met and any questions I had were answered. There was never a time I pass through the lobby that I was not greeted with a smile or friendly words. House keeping always cleaned my room to my satisfaction and it was always stocked with clean towels. I do not have a complaint about this hotel. It is a place I would continue to stay at and I would even recommend it to my friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>When I arrived I was greeted by the Latrina's friendly smile. She was professional and attentive to my need's. During my stay there Latrina and Angie (both at the front desk) went above and beyond their duty to make sure my needs were met and any questions I had were answered. There was never a time I pass through the lobby that I was not greeted with a smile or friendly words. House keeping always cleaned my room to my satisfaction and it was always stocked with clean towels. I do not have a complaint about this hotel. It is a place I would continue to stay at and I would even recommend it to my friends.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r286993320-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -1421,10 +2285,37 @@
     <t>Easy to find off Hwy 10, close to downtown area, clean, friendly staff. Our room was a queen size bed, 3 pillows (odd!), with a mini fridge, safe, desk dresser combo and lg flat panel TV that was mounted on wall. Coffee maker ( fairly decent coffee for an in-room set up). The entry way to room was a hugh empty was of space however and we both thought that so odd. But i think some rooms have kichnettes so maybe they designed them all so they could add that feature to all if needed. We called and asked for 2 more pillows and they said they didn't have any. But we did get 2 more the next night. We will probably return to visit and use this place again. easily accessiable to where we would go when we visit and at 70.00 a night a bargin!!MoreShow less</t>
   </si>
   <si>
-    <t>June 2015</t>
-  </si>
-  <si>
     <t>Easy to find off Hwy 10, close to downtown area, clean, friendly staff. Our room was a queen size bed, 3 pillows (odd!), with a mini fridge, safe, desk dresser combo and lg flat panel TV that was mounted on wall. Coffee maker ( fairly decent coffee for an in-room set up). The entry way to room was a hugh empty was of space however and we both thought that so odd. But i think some rooms have kichnettes so maybe they designed them all so they could add that feature to all if needed. We called and asked for 2 more pillows and they said they didn't have any. But we did get 2 more the next night. We will probably return to visit and use this place again. easily accessiable to where we would go when we visit and at 70.00 a night a bargin!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r282482313-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>282482313</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
+    <t>Best Hospitality in the Energy Corridor!</t>
+  </si>
+  <si>
+    <t>This hotel has come a long way since 2010 when I thought about changing hotels as this is the only Redroof Inn in Houston I would recommend staying at. They have converted and renovated this hotel to a Plus in which the rooms are great and new, and all the amenities are free! I come every week because of the staff. They always are polite and welcome me back before I get through the door! Service is a lost art but this hotel has not lost its paintbrush from the ladies at the front desk to the General Manager(Mr. Escamilla) I will continue are long relationship.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r279354162-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>279354162</t>
+  </si>
+  <si>
+    <t>06/10/2015</t>
+  </si>
+  <si>
+    <t>Over All a great place</t>
+  </si>
+  <si>
+    <t>Great location and rooms  staff was great Business centerBreakfastHad a laundry and fitness center Customer service was great was able to get in and out with no problem.checking in and out I would refer this location to others</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223172-r277623166-Red_Roof_PLUS_Houston_Energy_Corridor-Houston_Texas.html</t>
@@ -1998,7 +2889,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2015,10 +2906,14 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -2034,7 +2929,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -2043,28 +2938,30 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
       <c r="R3" t="s"/>
       <c r="S3" t="n">
         <v>5</v>
@@ -2077,13 +2974,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -2099,7 +2996,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -2108,16 +3005,16 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
@@ -2126,29 +3023,21 @@
         <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>69</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
         <v>70</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -2188,10 +3077,10 @@
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2203,13 +3092,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
         <v>78</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>79</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -2225,34 +3114,34 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>81</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>82</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>83</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>84</v>
       </c>
-      <c r="L6" t="s">
-        <v>85</v>
-      </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2264,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -2286,54 +3175,52 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
         <v>90</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7" t="s">
-        <v>94</v>
-      </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
-        <v>96</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>3</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>3</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>77</v>
+      </c>
+      <c r="X7" t="s">
+        <v>78</v>
+      </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -2349,46 +3236,54 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
         <v>97</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="O8" t="s">
         <v>98</v>
       </c>
-      <c r="J8" t="s">
-        <v>99</v>
-      </c>
-      <c r="K8" t="s">
-        <v>100</v>
-      </c>
-      <c r="L8" t="s">
-        <v>101</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>95</v>
-      </c>
-      <c r="O8" t="s">
-        <v>59</v>
-      </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X8" t="s">
+        <v>100</v>
+      </c>
       <c r="Y8" t="s">
         <v>101</v>
       </c>
@@ -2418,22 +3313,22 @@
         <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2444,10 +3339,14 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>77</v>
+      </c>
+      <c r="X9" t="s">
+        <v>78</v>
+      </c>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
@@ -2463,7 +3362,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2472,39 +3371,47 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>107</v>
       </c>
-      <c r="J10" t="s">
-        <v>108</v>
-      </c>
-      <c r="K10" t="s">
-        <v>109</v>
-      </c>
-      <c r="L10" t="s">
-        <v>110</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>95</v>
-      </c>
       <c r="O10" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>114</v>
+      </c>
+      <c r="X10" t="s">
+        <v>115</v>
+      </c>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
@@ -2520,7 +3427,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2529,39 +3436,47 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="O11" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>122</v>
+      </c>
+      <c r="X11" t="s">
+        <v>123</v>
+      </c>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
@@ -2577,7 +3492,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2586,45 +3501,49 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
         <v>119</v>
       </c>
-      <c r="J12" t="s">
-        <v>113</v>
-      </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
-      </c>
-      <c r="P12" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>122</v>
+      </c>
+      <c r="X12" t="s">
+        <v>123</v>
+      </c>
       <c r="Y12" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
@@ -2640,7 +3559,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2649,25 +3568,25 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="O13" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2678,10 +3597,14 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>136</v>
+      </c>
+      <c r="X13" t="s">
+        <v>137</v>
+      </c>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
@@ -2697,7 +3620,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2706,45 +3629,43 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O14" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>144</v>
+      </c>
+      <c r="X14" t="s">
+        <v>145</v>
+      </c>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
@@ -2760,7 +3681,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2769,25 +3690,25 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2799,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="X15" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="Y15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
@@ -2821,7 +3742,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2830,37 +3751,37 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="O16" t="s">
-        <v>59</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>160</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
       <c r="Q16" t="s"/>
       <c r="R16" t="n">
-        <v>4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2868,7 +3789,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
@@ -2884,7 +3805,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2893,39 +3814,45 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="J17" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="K17" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>159</v>
+      </c>
+      <c r="O17" t="s">
+        <v>71</v>
+      </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>151</v>
-      </c>
-      <c r="X17" t="s">
-        <v>152</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18">
@@ -2941,7 +3868,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2950,47 +3877,39 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="O18" t="s">
-        <v>117</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>4</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>151</v>
-      </c>
-      <c r="X18" t="s">
-        <v>152</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19">
@@ -3006,7 +3925,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3015,25 +3934,25 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J19" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="K19" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="O19" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3044,14 +3963,10 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>151</v>
-      </c>
-      <c r="X19" t="s">
-        <v>152</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20">
@@ -3067,7 +3982,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3076,45 +3991,39 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J20" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K20" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>2</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21">
@@ -3130,7 +4039,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3139,25 +4048,25 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="J21" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="K21" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="O21" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3171,7 +4080,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22">
@@ -3187,7 +4096,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3196,45 +4105,39 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="J22" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="K22" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="O22" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23">
@@ -3250,7 +4153,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3259,43 +4162,39 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="J23" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K23" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="L23" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="O23" t="s">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="n">
-        <v>4</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>3</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24">
@@ -3311,7 +4210,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3320,25 +4219,25 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="J24" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="K24" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L24" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="O24" t="s">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3349,14 +4248,10 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>193</v>
-      </c>
-      <c r="X24" t="s">
-        <v>194</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25">
@@ -3372,56 +4267,52 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25" t="s">
         <v>196</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
-        <v>197</v>
-      </c>
-      <c r="J25" t="s">
-        <v>198</v>
-      </c>
       <c r="K25" t="s">
+        <v>202</v>
+      </c>
+      <c r="L25" t="s">
+        <v>203</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
         <v>199</v>
       </c>
-      <c r="L25" t="s">
-        <v>200</v>
-      </c>
-      <c r="M25" t="n">
-        <v>2</v>
-      </c>
-      <c r="N25" t="s">
-        <v>192</v>
-      </c>
       <c r="O25" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
-      <c r="S25" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>201</v>
-      </c>
-      <c r="X25" t="s">
-        <v>202</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
         <v>203</v>
       </c>
@@ -3451,22 +4342,22 @@
         <v>205</v>
       </c>
       <c r="J26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K26" t="s">
         <v>206</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>207</v>
       </c>
-      <c r="L26" t="s">
-        <v>208</v>
-      </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3477,14 +4368,10 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>193</v>
-      </c>
-      <c r="X26" t="s">
-        <v>194</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27">
@@ -3500,52 +4387,58 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" t="s">
         <v>210</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="K27" t="s">
+        <v>89</v>
+      </c>
+      <c r="L27" t="s">
         <v>211</v>
       </c>
-      <c r="J27" t="s">
-        <v>212</v>
-      </c>
-      <c r="K27" t="s">
-        <v>213</v>
-      </c>
-      <c r="L27" t="s">
-        <v>214</v>
-      </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="O27" t="s">
-        <v>68</v>
-      </c>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="X27" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="Y27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28">
@@ -3561,52 +4454,58 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>216</v>
+      </c>
+      <c r="J28" t="s">
+        <v>210</v>
+      </c>
+      <c r="K28" t="s">
         <v>217</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="L28" t="s">
         <v>218</v>
       </c>
-      <c r="J28" t="s">
-        <v>219</v>
-      </c>
-      <c r="K28" t="s">
-        <v>220</v>
-      </c>
-      <c r="L28" t="s">
-        <v>221</v>
-      </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="O28" t="s">
-        <v>96</v>
-      </c>
-      <c r="P28" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
       <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="X28" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="Y28" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
@@ -3622,46 +4521,46 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>220</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>221</v>
+      </c>
+      <c r="J29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" t="s">
+        <v>223</v>
+      </c>
+      <c r="L29" t="s">
+        <v>224</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
         <v>225</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
-        <v>226</v>
-      </c>
-      <c r="J29" t="s">
-        <v>227</v>
-      </c>
-      <c r="K29" t="s">
-        <v>228</v>
-      </c>
-      <c r="L29" t="s">
-        <v>229</v>
-      </c>
-      <c r="M29" t="n">
+      <c r="O29" t="s">
+        <v>160</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
         <v>4</v>
       </c>
-      <c r="N29" t="s">
-        <v>230</v>
-      </c>
-      <c r="O29" t="s">
-        <v>68</v>
-      </c>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
       <c r="R29" t="n">
-        <v>4</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3669,7 +4568,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30">
@@ -3685,7 +4584,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3694,25 +4593,25 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="J30" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="K30" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L30" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="O30" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3723,10 +4622,14 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>212</v>
+      </c>
+      <c r="X30" t="s">
+        <v>213</v>
+      </c>
       <c r="Y30" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31">
@@ -3742,48 +4645,54 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>233</v>
+      </c>
+      <c r="J31" t="s">
+        <v>234</v>
+      </c>
+      <c r="K31" t="s">
+        <v>235</v>
+      </c>
+      <c r="L31" t="s">
+        <v>236</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
         <v>237</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
-        <v>238</v>
-      </c>
-      <c r="J31" t="s">
-        <v>239</v>
-      </c>
-      <c r="K31" t="s">
-        <v>240</v>
-      </c>
-      <c r="L31" t="s">
-        <v>241</v>
-      </c>
-      <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s">
-        <v>236</v>
-      </c>
       <c r="O31" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32">
@@ -3799,48 +4708,54 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>238</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>239</v>
+      </c>
+      <c r="J32" t="s">
+        <v>240</v>
+      </c>
+      <c r="K32" t="s">
+        <v>241</v>
+      </c>
+      <c r="L32" t="s">
         <v>242</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
-        <v>243</v>
-      </c>
-      <c r="J32" t="s">
-        <v>244</v>
-      </c>
-      <c r="K32" t="s">
-        <v>245</v>
-      </c>
-      <c r="L32" t="s">
-        <v>246</v>
-      </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O32" t="s">
-        <v>96</v>
-      </c>
-      <c r="P32" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33">
@@ -3856,31 +4771,31 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>243</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>244</v>
+      </c>
+      <c r="J33" t="s">
+        <v>245</v>
+      </c>
+      <c r="K33" t="s">
+        <v>246</v>
+      </c>
+      <c r="L33" t="s">
         <v>247</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
-        <v>248</v>
-      </c>
-      <c r="J33" t="s">
-        <v>249</v>
-      </c>
-      <c r="K33" t="s">
-        <v>250</v>
-      </c>
-      <c r="L33" t="s">
-        <v>251</v>
-      </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O33" t="s">
         <v>53</v>
@@ -3894,10 +4809,14 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>248</v>
+      </c>
+      <c r="X33" t="s">
+        <v>249</v>
+      </c>
       <c r="Y33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34">
@@ -3913,50 +4832,46 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>251</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
         <v>252</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>253</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>254</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>255</v>
       </c>
-      <c r="L34" t="s">
-        <v>256</v>
-      </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
-      <c r="N34" t="s">
-        <v>257</v>
-      </c>
-      <c r="O34" t="s">
-        <v>68</v>
-      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>256</v>
+      </c>
+      <c r="X34" t="s">
+        <v>257</v>
+      </c>
       <c r="Y34" t="s">
         <v>258</v>
       </c>
@@ -3998,28 +4913,32 @@
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="O35" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="P35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>256</v>
+      </c>
+      <c r="X35" t="s">
+        <v>257</v>
+      </c>
       <c r="Y35" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36">
@@ -4035,7 +4954,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4044,10 +4963,10 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J36" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="K36" t="s">
         <v>267</v>
@@ -4059,30 +4978,28 @@
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>256</v>
+      </c>
+      <c r="X36" t="s">
+        <v>257</v>
+      </c>
       <c r="Y36" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37">
@@ -4098,7 +5015,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4107,25 +5024,25 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J37" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K37" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L37" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="O37" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4136,10 +5053,14 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>256</v>
+      </c>
+      <c r="X37" t="s">
+        <v>257</v>
+      </c>
       <c r="Y37" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38">
@@ -4155,7 +5076,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4164,43 +5085,49 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J38" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K38" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L38" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
-      </c>
-      <c r="P38" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
       <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="X38" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y38" t="s">
         <v>281</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="39">
@@ -4216,58 +5143,54 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
+        <v>282</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
         <v>283</v>
       </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
+        <v>272</v>
+      </c>
+      <c r="K39" t="s">
         <v>284</v>
       </c>
-      <c r="J39" t="s">
+      <c r="L39" t="s">
         <v>285</v>
       </c>
-      <c r="K39" t="s">
-        <v>286</v>
-      </c>
-      <c r="L39" t="s">
-        <v>287</v>
-      </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="O39" t="s">
-        <v>96</v>
-      </c>
-      <c r="P39" t="s"/>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="s"/>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>288</v>
-      </c>
-      <c r="X39" t="s">
-        <v>289</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40">
@@ -4283,7 +5206,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4292,49 +5215,39 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="J40" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="K40" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L40" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="O40" t="s">
-        <v>59</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
       <c r="R40" t="s"/>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>296</v>
-      </c>
-      <c r="X40" t="s">
-        <v>289</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41">
@@ -4350,7 +5263,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4359,32 +5272,34 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="J41" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="K41" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="L41" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>302</v>
+        <v>237</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
-      <c r="R41" t="s"/>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
         <v>5</v>
@@ -4395,7 +5310,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42">
@@ -4411,7 +5326,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4420,32 +5335,34 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="J42" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="K42" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="L42" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O42" t="s">
-        <v>117</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q42" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
       <c r="R42" t="s"/>
-      <c r="S42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
         <v>5</v>
@@ -4456,7 +5373,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43">
@@ -4472,7 +5389,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4481,43 +5398,39 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="J43" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="K43" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L43" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O43" t="s">
-        <v>68</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>5</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44">
@@ -4533,7 +5446,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4542,35 +5455,35 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="J44" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="K44" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="L44" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="O44" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
       <c r="R44" t="s"/>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4578,7 +5491,7 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45">
@@ -4594,34 +5507,34 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
+        <v>315</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>316</v>
+      </c>
+      <c r="J45" t="s">
+        <v>317</v>
+      </c>
+      <c r="K45" t="s">
+        <v>318</v>
+      </c>
+      <c r="L45" t="s">
+        <v>319</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
         <v>320</v>
       </c>
-      <c r="G45" t="s">
-        <v>46</v>
-      </c>
-      <c r="H45" t="s">
-        <v>47</v>
-      </c>
-      <c r="I45" t="s">
-        <v>321</v>
-      </c>
-      <c r="J45" t="s">
-        <v>322</v>
-      </c>
-      <c r="K45" t="s">
-        <v>323</v>
-      </c>
-      <c r="L45" t="s">
-        <v>324</v>
-      </c>
-      <c r="M45" t="n">
-        <v>5</v>
-      </c>
-      <c r="N45" t="s">
-        <v>319</v>
-      </c>
       <c r="O45" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4632,10 +5545,14 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>321</v>
+      </c>
+      <c r="X45" t="s">
+        <v>322</v>
+      </c>
       <c r="Y45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46">
@@ -4651,54 +5568,58 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
+        <v>324</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
         <v>325</v>
       </c>
-      <c r="G46" t="s">
-        <v>46</v>
-      </c>
-      <c r="H46" t="s">
-        <v>47</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>326</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>327</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>328</v>
       </c>
-      <c r="L46" t="s">
-        <v>329</v>
-      </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
-      </c>
-      <c r="P46" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q46" t="s"/>
+        <v>160</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
       <c r="R46" t="n">
         <v>4</v>
       </c>
       <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>329</v>
+      </c>
+      <c r="X46" t="s">
+        <v>330</v>
+      </c>
       <c r="Y46" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47">
@@ -4714,7 +5635,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4723,45 +5644,43 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J47" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K47" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L47" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="O47" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>5</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>321</v>
+      </c>
+      <c r="X47" t="s">
+        <v>322</v>
+      </c>
       <c r="Y47" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="48">
@@ -4777,7 +5696,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4786,34 +5705,32 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="J48" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="K48" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="L48" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="O48" t="s">
-        <v>68</v>
-      </c>
-      <c r="P48" t="s"/>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
       <c r="R48" t="s"/>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
         <v>5</v>
@@ -4821,10 +5738,14 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>321</v>
+      </c>
+      <c r="X48" t="s">
+        <v>322</v>
+      </c>
       <c r="Y48" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49">
@@ -4840,7 +5761,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4849,25 +5770,25 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
+        <v>346</v>
+      </c>
+      <c r="J49" t="s">
         <v>341</v>
       </c>
-      <c r="J49" t="s">
-        <v>333</v>
-      </c>
       <c r="K49" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="L49" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O49" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -4878,10 +5799,14 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>321</v>
+      </c>
+      <c r="X49" t="s">
+        <v>322</v>
+      </c>
       <c r="Y49" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50">
@@ -4897,7 +5822,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -4906,25 +5831,25 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="J50" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="K50" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="L50" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="O50" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -4935,10 +5860,14 @@
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>321</v>
+      </c>
+      <c r="X50" t="s">
+        <v>322</v>
+      </c>
       <c r="Y50" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51">
@@ -4954,7 +5883,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -4963,43 +5892,43 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="J51" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="K51" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="L51" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>230</v>
+        <v>320</v>
       </c>
       <c r="O51" t="s">
-        <v>68</v>
-      </c>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
       <c r="R51" t="s"/>
       <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>5</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>361</v>
+      </c>
+      <c r="X51" t="s">
+        <v>362</v>
+      </c>
       <c r="Y51" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="52">
@@ -5015,7 +5944,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5024,37 +5953,35 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="J52" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="K52" t="s">
-        <v>84</v>
+        <v>367</v>
       </c>
       <c r="L52" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>230</v>
+        <v>313</v>
       </c>
       <c r="O52" t="s">
-        <v>96</v>
-      </c>
-      <c r="P52" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
       <c r="Q52" t="s"/>
-      <c r="R52" t="n">
-        <v>4</v>
-      </c>
-      <c r="S52" t="n">
-        <v>5</v>
-      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -5062,7 +5989,7 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
     </row>
     <row r="53">
@@ -5078,7 +6005,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5087,35 +6014,43 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="J53" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="K53" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="L53" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
-      <c r="N53" t="s"/>
-      <c r="O53" t="s"/>
+      <c r="N53" t="s">
+        <v>313</v>
+      </c>
+      <c r="O53" t="s">
+        <v>71</v>
+      </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
       <c r="R53" t="s"/>
-      <c r="S53" t="s"/>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
       <c r="T53" t="s"/>
-      <c r="U53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
     </row>
     <row r="54">
@@ -5131,7 +6066,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5140,35 +6075,37 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="J54" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="K54" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="L54" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
       <c r="R54" t="n">
-        <v>5</v>
-      </c>
-      <c r="S54" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -5176,7 +6113,7 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
     </row>
     <row r="55">
@@ -5192,7 +6129,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5201,43 +6138,39 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="J55" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="K55" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="L55" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="O55" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="P55" t="s"/>
-      <c r="Q55" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q55" t="s"/>
       <c r="R55" t="s"/>
       <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>5</v>
-      </c>
+      <c r="U55" t="s"/>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56">
@@ -5253,7 +6186,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5262,22 +6195,26 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="J56" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="K56" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="L56" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="s"/>
-      <c r="O56" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>386</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
       <c r="R56" t="s"/>
@@ -5290,7 +6227,7 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57">
@@ -5306,7 +6243,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5315,16 +6252,16 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="J57" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="K57" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="L57" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
@@ -5333,27 +6270,21 @@
         <v>386</v>
       </c>
       <c r="O57" t="s">
-        <v>96</v>
-      </c>
-      <c r="P57" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
       <c r="R57" t="s"/>
-      <c r="S57" t="n">
-        <v>5</v>
-      </c>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="n">
-        <v>5</v>
-      </c>
+      <c r="U57" t="s"/>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="58">
@@ -5369,7 +6300,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5378,35 +6309,45 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="J58" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="K58" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="L58" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
-      </c>
-      <c r="N58" t="s"/>
-      <c r="O58" t="s"/>
-      <c r="P58" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>386</v>
+      </c>
+      <c r="O58" t="s">
+        <v>98</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
       <c r="Q58" t="s"/>
       <c r="R58" t="s"/>
-      <c r="S58" t="s"/>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
       <c r="T58" t="s"/>
-      <c r="U58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
     </row>
     <row r="59">
@@ -5422,7 +6363,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5431,25 +6372,25 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="J59" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="K59" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="L59" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="M59" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N59" t="s">
         <v>386</v>
       </c>
       <c r="O59" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -5463,7 +6404,7 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
     </row>
     <row r="60">
@@ -5479,7 +6420,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5488,25 +6429,25 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="J60" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="K60" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="L60" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="M60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N60" t="s">
         <v>386</v>
       </c>
       <c r="O60" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -5520,7 +6461,7 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="61">
@@ -5536,7 +6477,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5545,39 +6486,43 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="J61" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="K61" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="L61" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="O61" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
       <c r="R61" t="s"/>
-      <c r="S61" t="s"/>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
       <c r="T61" t="s"/>
-      <c r="U61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="62">
@@ -5593,7 +6538,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -5602,34 +6547,34 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J62" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="K62" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="L62" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="O62" t="s">
-        <v>68</v>
-      </c>
-      <c r="P62" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q62" t="s"/>
-      <c r="R62" t="s"/>
-      <c r="S62" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="s"/>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
         <v>5</v>
@@ -5637,14 +6582,10 @@
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s">
-        <v>415</v>
-      </c>
-      <c r="X62" t="s">
-        <v>416</v>
-      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="63">
@@ -5660,7 +6601,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -5669,49 +6610,39 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="J63" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="K63" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L63" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O63" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P63" t="s"/>
-      <c r="Q63" t="n">
-        <v>5</v>
-      </c>
-      <c r="R63" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
       <c r="S63" t="s"/>
       <c r="T63" t="s"/>
-      <c r="U63" t="n">
-        <v>5</v>
-      </c>
+      <c r="U63" t="s"/>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s">
-        <v>415</v>
-      </c>
-      <c r="X63" t="s">
-        <v>416</v>
-      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="64">
@@ -5727,7 +6658,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -5736,43 +6667,43 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="J64" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="K64" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="L64" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="O64" t="s">
-        <v>59</v>
-      </c>
-      <c r="P64" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
       <c r="Q64" t="s"/>
       <c r="R64" t="s"/>
       <c r="S64" t="s"/>
       <c r="T64" t="s"/>
-      <c r="U64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s">
-        <v>430</v>
-      </c>
-      <c r="X64" t="s">
-        <v>431</v>
-      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="65">
@@ -5788,7 +6719,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -5797,34 +6728,34 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J65" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K65" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L65" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="O65" t="s">
-        <v>59</v>
-      </c>
-      <c r="P65" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q65" t="s"/>
-      <c r="R65" t="s"/>
-      <c r="S65" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="s"/>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
         <v>5</v>
@@ -5832,14 +6763,10 @@
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s">
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
         <v>438</v>
-      </c>
-      <c r="X65" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="66">
@@ -5855,58 +6782,48 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
+        <v>439</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>440</v>
+      </c>
+      <c r="J66" t="s">
         <v>441</v>
       </c>
-      <c r="G66" t="s">
-        <v>46</v>
-      </c>
-      <c r="H66" t="s">
-        <v>47</v>
-      </c>
-      <c r="I66" t="s">
+      <c r="K66" t="s">
         <v>442</v>
       </c>
-      <c r="J66" t="s">
+      <c r="L66" t="s">
         <v>443</v>
       </c>
-      <c r="K66" t="s">
-        <v>444</v>
-      </c>
-      <c r="L66" t="s">
-        <v>445</v>
-      </c>
       <c r="M66" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O66" t="s">
         <v>53</v>
       </c>
-      <c r="P66" t="n">
-        <v>5</v>
-      </c>
+      <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
       <c r="R66" t="s"/>
-      <c r="S66" t="n">
-        <v>5</v>
-      </c>
+      <c r="S66" t="s"/>
       <c r="T66" t="s"/>
-      <c r="U66" t="n">
-        <v>5</v>
-      </c>
+      <c r="U66" t="s"/>
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s">
-        <v>438</v>
-      </c>
-      <c r="X66" t="s">
-        <v>439</v>
-      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="67">
@@ -5922,44 +6839,54 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
+        <v>444</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>445</v>
+      </c>
+      <c r="J67" t="s">
+        <v>446</v>
+      </c>
+      <c r="K67" t="s">
         <v>447</v>
       </c>
-      <c r="G67" t="s">
-        <v>46</v>
-      </c>
-      <c r="H67" t="s">
-        <v>47</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="L67" t="s">
         <v>448</v>
       </c>
-      <c r="J67" t="s">
-        <v>449</v>
-      </c>
-      <c r="K67" t="s">
-        <v>450</v>
-      </c>
-      <c r="L67" t="s">
-        <v>451</v>
-      </c>
       <c r="M67" t="n">
-        <v>4</v>
-      </c>
-      <c r="N67" t="s"/>
-      <c r="O67" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>380</v>
+      </c>
+      <c r="O67" t="s">
+        <v>98</v>
+      </c>
       <c r="P67" t="s"/>
-      <c r="Q67" t="s"/>
-      <c r="R67" t="s"/>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
       <c r="S67" t="s"/>
       <c r="T67" t="s"/>
-      <c r="U67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
       <c r="V67" t="n">
         <v>0</v>
       </c>
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="68">
@@ -5975,46 +6902,46 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
+        <v>449</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>450</v>
+      </c>
+      <c r="J68" t="s">
+        <v>451</v>
+      </c>
+      <c r="K68" t="s">
         <v>452</v>
       </c>
-      <c r="G68" t="s">
-        <v>46</v>
-      </c>
-      <c r="H68" t="s">
-        <v>47</v>
-      </c>
-      <c r="I68" t="s">
+      <c r="L68" t="s">
         <v>453</v>
       </c>
-      <c r="J68" t="s">
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
         <v>454</v>
       </c>
-      <c r="K68" t="s">
-        <v>455</v>
-      </c>
-      <c r="L68" t="s">
-        <v>456</v>
-      </c>
-      <c r="M68" t="n">
-        <v>2</v>
-      </c>
-      <c r="N68" t="s">
-        <v>414</v>
-      </c>
       <c r="O68" t="s">
-        <v>68</v>
-      </c>
-      <c r="P68" t="s"/>
+        <v>160</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
       <c r="Q68" t="n">
         <v>3</v>
       </c>
       <c r="R68" t="s"/>
-      <c r="S68" t="n">
-        <v>2</v>
-      </c>
+      <c r="S68" t="s"/>
       <c r="T68" t="s"/>
       <c r="U68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
@@ -6022,7 +6949,7 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="69">
@@ -6038,34 +6965,34 @@
         <v>44</v>
       </c>
       <c r="F69" t="s">
+        <v>455</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>456</v>
+      </c>
+      <c r="J69" t="s">
         <v>457</v>
       </c>
-      <c r="G69" t="s">
-        <v>46</v>
-      </c>
-      <c r="H69" t="s">
-        <v>47</v>
-      </c>
-      <c r="I69" t="s">
+      <c r="K69" t="s">
         <v>458</v>
       </c>
-      <c r="J69" t="s">
+      <c r="L69" t="s">
         <v>459</v>
       </c>
-      <c r="K69" t="s">
-        <v>460</v>
-      </c>
-      <c r="L69" t="s">
-        <v>461</v>
-      </c>
       <c r="M69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N69" t="s">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="O69" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -6076,10 +7003,14 @@
       <c r="V69" t="n">
         <v>0</v>
       </c>
-      <c r="W69" t="s"/>
-      <c r="X69" t="s"/>
+      <c r="W69" t="s">
+        <v>460</v>
+      </c>
+      <c r="X69" t="s">
+        <v>461</v>
+      </c>
       <c r="Y69" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="70">
@@ -6095,7 +7026,7 @@
         <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -6104,39 +7035,49 @@
         <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J70" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K70" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L70" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="O70" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="P70" t="s"/>
-      <c r="Q70" t="s"/>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
       <c r="R70" t="s"/>
-      <c r="S70" t="s"/>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
       <c r="T70" t="s"/>
-      <c r="U70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s"/>
-      <c r="X70" t="s"/>
+      <c r="W70" t="s">
+        <v>468</v>
+      </c>
+      <c r="X70" t="s">
+        <v>469</v>
+      </c>
       <c r="Y70" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="71">
@@ -6152,7 +7093,7 @@
         <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G71" t="s">
         <v>46</v>
@@ -6161,45 +7102,49 @@
         <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J71" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K71" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="L71" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="O71" t="s">
-        <v>68</v>
-      </c>
-      <c r="P71" t="s"/>
-      <c r="Q71" t="s"/>
-      <c r="R71" t="n">
-        <v>5</v>
-      </c>
-      <c r="S71" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
       <c r="T71" t="s"/>
       <c r="U71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
       </c>
-      <c r="W71" t="s"/>
-      <c r="X71" t="s"/>
+      <c r="W71" t="s">
+        <v>476</v>
+      </c>
+      <c r="X71" t="s">
+        <v>469</v>
+      </c>
       <c r="Y71" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="72">
@@ -6215,7 +7160,7 @@
         <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G72" t="s">
         <v>46</v>
@@ -6224,37 +7169,37 @@
         <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="J72" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="K72" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L72" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="O72" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
       </c>
-      <c r="Q72" t="s"/>
-      <c r="R72" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="s"/>
       <c r="S72" t="s"/>
       <c r="T72" t="s"/>
       <c r="U72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V72" t="n">
         <v>0</v>
@@ -6262,7 +7207,3212 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>484</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>485</v>
+      </c>
+      <c r="J73" t="s">
         <v>480</v>
+      </c>
+      <c r="K73" t="s">
+        <v>486</v>
+      </c>
+      <c r="L73" t="s">
+        <v>487</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>488</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>489</v>
+      </c>
+      <c r="J74" t="s">
+        <v>490</v>
+      </c>
+      <c r="K74" t="s">
+        <v>112</v>
+      </c>
+      <c r="L74" t="s">
+        <v>491</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>483</v>
+      </c>
+      <c r="O74" t="s">
+        <v>71</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>492</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>493</v>
+      </c>
+      <c r="J75" t="s">
+        <v>494</v>
+      </c>
+      <c r="K75" t="s">
+        <v>495</v>
+      </c>
+      <c r="L75" t="s">
+        <v>496</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>483</v>
+      </c>
+      <c r="O75" t="s">
+        <v>193</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>498</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>499</v>
+      </c>
+      <c r="J76" t="s">
+        <v>500</v>
+      </c>
+      <c r="K76" t="s">
+        <v>501</v>
+      </c>
+      <c r="L76" t="s">
+        <v>502</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>483</v>
+      </c>
+      <c r="O76" t="s">
+        <v>98</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>503</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>504</v>
+      </c>
+      <c r="J77" t="s">
+        <v>500</v>
+      </c>
+      <c r="K77" t="s">
+        <v>505</v>
+      </c>
+      <c r="L77" t="s">
+        <v>506</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>483</v>
+      </c>
+      <c r="O77" t="s">
+        <v>71</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>507</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>508</v>
+      </c>
+      <c r="J78" t="s">
+        <v>509</v>
+      </c>
+      <c r="K78" t="s">
+        <v>510</v>
+      </c>
+      <c r="L78" t="s">
+        <v>511</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>483</v>
+      </c>
+      <c r="O78" t="s">
+        <v>98</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>513</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>514</v>
+      </c>
+      <c r="J79" t="s">
+        <v>515</v>
+      </c>
+      <c r="K79" t="s">
+        <v>516</v>
+      </c>
+      <c r="L79" t="s">
+        <v>517</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>518</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>519</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>520</v>
+      </c>
+      <c r="J80" t="s">
+        <v>521</v>
+      </c>
+      <c r="K80" t="s">
+        <v>522</v>
+      </c>
+      <c r="L80" t="s">
+        <v>523</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>518</v>
+      </c>
+      <c r="O80" t="s">
+        <v>98</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>524</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>525</v>
+      </c>
+      <c r="J81" t="s">
+        <v>526</v>
+      </c>
+      <c r="K81" t="s">
+        <v>527</v>
+      </c>
+      <c r="L81" t="s">
+        <v>528</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>529</v>
+      </c>
+      <c r="O81" t="s">
+        <v>71</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>530</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>531</v>
+      </c>
+      <c r="J82" t="s">
+        <v>532</v>
+      </c>
+      <c r="K82" t="s">
+        <v>533</v>
+      </c>
+      <c r="L82" t="s">
+        <v>534</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>529</v>
+      </c>
+      <c r="O82" t="s">
+        <v>98</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>535</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>536</v>
+      </c>
+      <c r="J83" t="s">
+        <v>537</v>
+      </c>
+      <c r="K83" t="s">
+        <v>538</v>
+      </c>
+      <c r="L83" t="s">
+        <v>539</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>518</v>
+      </c>
+      <c r="O83" t="s">
+        <v>98</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>540</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>541</v>
+      </c>
+      <c r="J84" t="s">
+        <v>537</v>
+      </c>
+      <c r="K84" t="s">
+        <v>542</v>
+      </c>
+      <c r="L84" t="s">
+        <v>543</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>529</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>544</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>545</v>
+      </c>
+      <c r="J85" t="s">
+        <v>537</v>
+      </c>
+      <c r="K85" t="s">
+        <v>546</v>
+      </c>
+      <c r="L85" t="s">
+        <v>547</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>529</v>
+      </c>
+      <c r="O85" t="s">
+        <v>98</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="s"/>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>548</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>549</v>
+      </c>
+      <c r="J86" t="s">
+        <v>537</v>
+      </c>
+      <c r="K86" t="s">
+        <v>550</v>
+      </c>
+      <c r="L86" t="s">
+        <v>551</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>518</v>
+      </c>
+      <c r="O86" t="s">
+        <v>98</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>552</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>553</v>
+      </c>
+      <c r="J87" t="s">
+        <v>554</v>
+      </c>
+      <c r="K87" t="s">
+        <v>555</v>
+      </c>
+      <c r="L87" t="s">
+        <v>556</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>529</v>
+      </c>
+      <c r="O87" t="s">
+        <v>160</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>558</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>559</v>
+      </c>
+      <c r="J88" t="s">
+        <v>560</v>
+      </c>
+      <c r="K88" t="s">
+        <v>561</v>
+      </c>
+      <c r="L88" t="s">
+        <v>562</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>529</v>
+      </c>
+      <c r="O88" t="s">
+        <v>98</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>563</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>564</v>
+      </c>
+      <c r="J89" t="s">
+        <v>565</v>
+      </c>
+      <c r="K89" t="s">
+        <v>566</v>
+      </c>
+      <c r="L89" t="s">
+        <v>567</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>529</v>
+      </c>
+      <c r="O89" t="s">
+        <v>98</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>568</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>569</v>
+      </c>
+      <c r="J90" t="s">
+        <v>570</v>
+      </c>
+      <c r="K90" t="s">
+        <v>571</v>
+      </c>
+      <c r="L90" t="s">
+        <v>572</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>380</v>
+      </c>
+      <c r="O90" t="s">
+        <v>98</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>573</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>574</v>
+      </c>
+      <c r="J91" t="s">
+        <v>575</v>
+      </c>
+      <c r="K91" t="s">
+        <v>150</v>
+      </c>
+      <c r="L91" t="s">
+        <v>576</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>380</v>
+      </c>
+      <c r="O91" t="s">
+        <v>160</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>578</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>579</v>
+      </c>
+      <c r="J92" t="s">
+        <v>580</v>
+      </c>
+      <c r="K92" t="s">
+        <v>581</v>
+      </c>
+      <c r="L92" t="s">
+        <v>582</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>583</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>2</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>585</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>586</v>
+      </c>
+      <c r="J93" t="s">
+        <v>587</v>
+      </c>
+      <c r="K93" t="s">
+        <v>588</v>
+      </c>
+      <c r="L93" t="s">
+        <v>589</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>590</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>591</v>
+      </c>
+      <c r="J94" t="s">
+        <v>592</v>
+      </c>
+      <c r="K94" t="s">
+        <v>593</v>
+      </c>
+      <c r="L94" t="s">
+        <v>594</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>595</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>596</v>
+      </c>
+      <c r="J95" t="s">
+        <v>597</v>
+      </c>
+      <c r="K95" t="s">
+        <v>598</v>
+      </c>
+      <c r="L95" t="s">
+        <v>599</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>600</v>
+      </c>
+      <c r="O95" t="s">
+        <v>71</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>601</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>602</v>
+      </c>
+      <c r="J96" t="s">
+        <v>603</v>
+      </c>
+      <c r="K96" t="s">
+        <v>604</v>
+      </c>
+      <c r="L96" t="s">
+        <v>605</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>600</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>607</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>608</v>
+      </c>
+      <c r="J97" t="s">
+        <v>609</v>
+      </c>
+      <c r="K97" t="s">
+        <v>610</v>
+      </c>
+      <c r="L97" t="s">
+        <v>611</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>600</v>
+      </c>
+      <c r="O97" t="s">
+        <v>71</v>
+      </c>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="s"/>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>612</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>613</v>
+      </c>
+      <c r="J98" t="s">
+        <v>614</v>
+      </c>
+      <c r="K98" t="s">
+        <v>615</v>
+      </c>
+      <c r="L98" t="s">
+        <v>616</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2</v>
+      </c>
+      <c r="N98" t="s">
+        <v>583</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>1</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>617</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>618</v>
+      </c>
+      <c r="J99" t="s">
+        <v>619</v>
+      </c>
+      <c r="K99" t="s">
+        <v>620</v>
+      </c>
+      <c r="L99" t="s">
+        <v>621</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="s"/>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>622</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>623</v>
+      </c>
+      <c r="J100" t="s">
+        <v>624</v>
+      </c>
+      <c r="K100" t="s">
+        <v>625</v>
+      </c>
+      <c r="L100" t="s">
+        <v>626</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>583</v>
+      </c>
+      <c r="O100" t="s">
+        <v>160</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>627</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>628</v>
+      </c>
+      <c r="J101" t="s">
+        <v>629</v>
+      </c>
+      <c r="K101" t="s">
+        <v>630</v>
+      </c>
+      <c r="L101" t="s">
+        <v>631</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s"/>
+      <c r="O101" t="s"/>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="s"/>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>632</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>633</v>
+      </c>
+      <c r="J102" t="s">
+        <v>634</v>
+      </c>
+      <c r="K102" t="s">
+        <v>635</v>
+      </c>
+      <c r="L102" t="s">
+        <v>636</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>583</v>
+      </c>
+      <c r="O102" t="s">
+        <v>98</v>
+      </c>
+      <c r="P102" t="s"/>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="s"/>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>637</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>638</v>
+      </c>
+      <c r="J103" t="s">
+        <v>639</v>
+      </c>
+      <c r="K103" t="s">
+        <v>640</v>
+      </c>
+      <c r="L103" t="s">
+        <v>641</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="s">
+        <v>583</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="s"/>
+      <c r="T103" t="s"/>
+      <c r="U103" t="s"/>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>642</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>643</v>
+      </c>
+      <c r="J104" t="s">
+        <v>644</v>
+      </c>
+      <c r="K104" t="s">
+        <v>645</v>
+      </c>
+      <c r="L104" t="s">
+        <v>646</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>583</v>
+      </c>
+      <c r="O104" t="s">
+        <v>160</v>
+      </c>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="s"/>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>647</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>648</v>
+      </c>
+      <c r="J105" t="s">
+        <v>644</v>
+      </c>
+      <c r="K105" t="s">
+        <v>649</v>
+      </c>
+      <c r="L105" t="s">
+        <v>650</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2</v>
+      </c>
+      <c r="N105" t="s">
+        <v>583</v>
+      </c>
+      <c r="O105" t="s">
+        <v>53</v>
+      </c>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="s"/>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s"/>
+      <c r="U105" t="s"/>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>652</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>653</v>
+      </c>
+      <c r="J106" t="s">
+        <v>654</v>
+      </c>
+      <c r="K106" t="s">
+        <v>655</v>
+      </c>
+      <c r="L106" t="s">
+        <v>656</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>657</v>
+      </c>
+      <c r="O106" t="s">
+        <v>98</v>
+      </c>
+      <c r="P106" t="s"/>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="s"/>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="s"/>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>659</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>660</v>
+      </c>
+      <c r="J107" t="s">
+        <v>661</v>
+      </c>
+      <c r="K107" t="s">
+        <v>662</v>
+      </c>
+      <c r="L107" t="s">
+        <v>663</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>664</v>
+      </c>
+      <c r="O107" t="s">
+        <v>53</v>
+      </c>
+      <c r="P107" t="s"/>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="s"/>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>665</v>
+      </c>
+      <c r="X107" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>668</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>669</v>
+      </c>
+      <c r="J108" t="s">
+        <v>661</v>
+      </c>
+      <c r="K108" t="s">
+        <v>670</v>
+      </c>
+      <c r="L108" t="s">
+        <v>671</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>664</v>
+      </c>
+      <c r="O108" t="s">
+        <v>98</v>
+      </c>
+      <c r="P108" t="s"/>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="s"/>
+      <c r="S108" t="s"/>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>665</v>
+      </c>
+      <c r="X108" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>673</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>674</v>
+      </c>
+      <c r="J109" t="s">
+        <v>675</v>
+      </c>
+      <c r="K109" t="s">
+        <v>676</v>
+      </c>
+      <c r="L109" t="s">
+        <v>677</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s">
+        <v>678</v>
+      </c>
+      <c r="O109" t="s">
+        <v>98</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="s"/>
+      <c r="R109" t="s"/>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>665</v>
+      </c>
+      <c r="X109" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>680</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>681</v>
+      </c>
+      <c r="J110" t="s">
+        <v>682</v>
+      </c>
+      <c r="K110" t="s">
+        <v>683</v>
+      </c>
+      <c r="L110" t="s">
+        <v>684</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>678</v>
+      </c>
+      <c r="O110" t="s">
+        <v>98</v>
+      </c>
+      <c r="P110" t="s"/>
+      <c r="Q110" t="n">
+        <v>5</v>
+      </c>
+      <c r="R110" t="n">
+        <v>5</v>
+      </c>
+      <c r="S110" t="s"/>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>665</v>
+      </c>
+      <c r="X110" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>686</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>687</v>
+      </c>
+      <c r="J111" t="s">
+        <v>688</v>
+      </c>
+      <c r="K111" t="s">
+        <v>689</v>
+      </c>
+      <c r="L111" t="s">
+        <v>690</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="s">
+        <v>664</v>
+      </c>
+      <c r="O111" t="s">
+        <v>53</v>
+      </c>
+      <c r="P111" t="s"/>
+      <c r="Q111" t="s"/>
+      <c r="R111" t="s"/>
+      <c r="S111" t="s"/>
+      <c r="T111" t="s"/>
+      <c r="U111" t="s"/>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s">
+        <v>691</v>
+      </c>
+      <c r="X111" t="s">
+        <v>692</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>694</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>695</v>
+      </c>
+      <c r="J112" t="s">
+        <v>696</v>
+      </c>
+      <c r="K112" t="s">
+        <v>697</v>
+      </c>
+      <c r="L112" t="s">
+        <v>698</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5</v>
+      </c>
+      <c r="N112" t="s">
+        <v>678</v>
+      </c>
+      <c r="O112" t="s">
+        <v>98</v>
+      </c>
+      <c r="P112" t="s"/>
+      <c r="Q112" t="s"/>
+      <c r="R112" t="s"/>
+      <c r="S112" t="s"/>
+      <c r="T112" t="s"/>
+      <c r="U112" t="s"/>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s">
+        <v>691</v>
+      </c>
+      <c r="X112" t="s">
+        <v>692</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>700</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>701</v>
+      </c>
+      <c r="J113" t="s">
+        <v>702</v>
+      </c>
+      <c r="K113" t="s">
+        <v>703</v>
+      </c>
+      <c r="L113" t="s">
+        <v>704</v>
+      </c>
+      <c r="M113" t="n">
+        <v>5</v>
+      </c>
+      <c r="N113" t="s">
+        <v>678</v>
+      </c>
+      <c r="O113" t="s">
+        <v>193</v>
+      </c>
+      <c r="P113" t="s"/>
+      <c r="Q113" t="s"/>
+      <c r="R113" t="s"/>
+      <c r="S113" t="s"/>
+      <c r="T113" t="s"/>
+      <c r="U113" t="s"/>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s">
+        <v>705</v>
+      </c>
+      <c r="X113" t="s">
+        <v>706</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>708</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>709</v>
+      </c>
+      <c r="J114" t="s">
+        <v>710</v>
+      </c>
+      <c r="K114" t="s">
+        <v>217</v>
+      </c>
+      <c r="L114" t="s">
+        <v>711</v>
+      </c>
+      <c r="M114" t="n">
+        <v>5</v>
+      </c>
+      <c r="N114" t="s">
+        <v>678</v>
+      </c>
+      <c r="O114" t="s">
+        <v>53</v>
+      </c>
+      <c r="P114" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q114" t="s"/>
+      <c r="R114" t="s"/>
+      <c r="S114" t="n">
+        <v>5</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>5</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s">
+        <v>705</v>
+      </c>
+      <c r="X114" t="s">
+        <v>706</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>713</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>714</v>
+      </c>
+      <c r="J115" t="s">
+        <v>715</v>
+      </c>
+      <c r="K115" t="s">
+        <v>716</v>
+      </c>
+      <c r="L115" t="s">
+        <v>717</v>
+      </c>
+      <c r="M115" t="n">
+        <v>5</v>
+      </c>
+      <c r="N115" t="s">
+        <v>678</v>
+      </c>
+      <c r="O115" t="s">
+        <v>71</v>
+      </c>
+      <c r="P115" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q115" t="s"/>
+      <c r="R115" t="s"/>
+      <c r="S115" t="n">
+        <v>5</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>5</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s">
+        <v>705</v>
+      </c>
+      <c r="X115" t="s">
+        <v>706</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>719</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>720</v>
+      </c>
+      <c r="J116" t="s">
+        <v>721</v>
+      </c>
+      <c r="K116" t="s">
+        <v>722</v>
+      </c>
+      <c r="L116" t="s">
+        <v>723</v>
+      </c>
+      <c r="M116" t="n">
+        <v>4</v>
+      </c>
+      <c r="N116" t="s"/>
+      <c r="O116" t="s"/>
+      <c r="P116" t="s"/>
+      <c r="Q116" t="s"/>
+      <c r="R116" t="s"/>
+      <c r="S116" t="s"/>
+      <c r="T116" t="s"/>
+      <c r="U116" t="s"/>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s"/>
+      <c r="X116" t="s"/>
+      <c r="Y116" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
+      <c r="D117" t="n">
+        <v>116</v>
+      </c>
+      <c r="E117" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" t="s">
+        <v>724</v>
+      </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117" t="s">
+        <v>725</v>
+      </c>
+      <c r="J117" t="s">
+        <v>726</v>
+      </c>
+      <c r="K117" t="s">
+        <v>727</v>
+      </c>
+      <c r="L117" t="s">
+        <v>728</v>
+      </c>
+      <c r="M117" t="n">
+        <v>5</v>
+      </c>
+      <c r="N117" t="s">
+        <v>729</v>
+      </c>
+      <c r="O117" t="s">
+        <v>53</v>
+      </c>
+      <c r="P117" t="s"/>
+      <c r="Q117" t="s"/>
+      <c r="R117" t="n">
+        <v>5</v>
+      </c>
+      <c r="S117" t="s"/>
+      <c r="T117" t="s"/>
+      <c r="U117" t="n">
+        <v>5</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="s"/>
+      <c r="X117" t="s"/>
+      <c r="Y117" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B118" t="s"/>
+      <c r="C118" t="s"/>
+      <c r="D118" t="n">
+        <v>117</v>
+      </c>
+      <c r="E118" t="s">
+        <v>44</v>
+      </c>
+      <c r="F118" t="s">
+        <v>730</v>
+      </c>
+      <c r="G118" t="s">
+        <v>46</v>
+      </c>
+      <c r="H118" t="s">
+        <v>47</v>
+      </c>
+      <c r="I118" t="s">
+        <v>731</v>
+      </c>
+      <c r="J118" t="s">
+        <v>726</v>
+      </c>
+      <c r="K118" t="s">
+        <v>732</v>
+      </c>
+      <c r="L118" t="s">
+        <v>733</v>
+      </c>
+      <c r="M118" t="n">
+        <v>5</v>
+      </c>
+      <c r="N118" t="s">
+        <v>734</v>
+      </c>
+      <c r="O118" t="s">
+        <v>53</v>
+      </c>
+      <c r="P118" t="s"/>
+      <c r="Q118" t="n">
+        <v>5</v>
+      </c>
+      <c r="R118" t="s"/>
+      <c r="S118" t="n">
+        <v>4</v>
+      </c>
+      <c r="T118" t="s"/>
+      <c r="U118" t="n">
+        <v>5</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="s"/>
+      <c r="X118" t="s"/>
+      <c r="Y118" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B119" t="s"/>
+      <c r="C119" t="s"/>
+      <c r="D119" t="n">
+        <v>118</v>
+      </c>
+      <c r="E119" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" t="s">
+        <v>736</v>
+      </c>
+      <c r="G119" t="s">
+        <v>46</v>
+      </c>
+      <c r="H119" t="s">
+        <v>47</v>
+      </c>
+      <c r="I119" t="s">
+        <v>737</v>
+      </c>
+      <c r="J119" t="s">
+        <v>738</v>
+      </c>
+      <c r="K119" t="s">
+        <v>739</v>
+      </c>
+      <c r="L119" t="s">
+        <v>740</v>
+      </c>
+      <c r="M119" t="n">
+        <v>2</v>
+      </c>
+      <c r="N119" t="s">
+        <v>678</v>
+      </c>
+      <c r="O119" t="s">
+        <v>98</v>
+      </c>
+      <c r="P119" t="s"/>
+      <c r="Q119" t="n">
+        <v>3</v>
+      </c>
+      <c r="R119" t="s"/>
+      <c r="S119" t="n">
+        <v>2</v>
+      </c>
+      <c r="T119" t="s"/>
+      <c r="U119" t="n">
+        <v>4</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="s"/>
+      <c r="X119" t="s"/>
+      <c r="Y119" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B120" t="s"/>
+      <c r="C120" t="s"/>
+      <c r="D120" t="n">
+        <v>119</v>
+      </c>
+      <c r="E120" t="s">
+        <v>44</v>
+      </c>
+      <c r="F120" t="s">
+        <v>741</v>
+      </c>
+      <c r="G120" t="s">
+        <v>46</v>
+      </c>
+      <c r="H120" t="s">
+        <v>47</v>
+      </c>
+      <c r="I120" t="s">
+        <v>742</v>
+      </c>
+      <c r="J120" t="s">
+        <v>743</v>
+      </c>
+      <c r="K120" t="s">
+        <v>744</v>
+      </c>
+      <c r="L120" t="s">
+        <v>745</v>
+      </c>
+      <c r="M120" t="n">
+        <v>5</v>
+      </c>
+      <c r="N120" t="s">
+        <v>678</v>
+      </c>
+      <c r="O120" t="s">
+        <v>193</v>
+      </c>
+      <c r="P120" t="s"/>
+      <c r="Q120" t="s"/>
+      <c r="R120" t="s"/>
+      <c r="S120" t="s"/>
+      <c r="T120" t="s"/>
+      <c r="U120" t="s"/>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
+      <c r="W120" t="s"/>
+      <c r="X120" t="s"/>
+      <c r="Y120" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B121" t="s"/>
+      <c r="C121" t="s"/>
+      <c r="D121" t="n">
+        <v>120</v>
+      </c>
+      <c r="E121" t="s">
+        <v>44</v>
+      </c>
+      <c r="F121" t="s">
+        <v>746</v>
+      </c>
+      <c r="G121" t="s">
+        <v>46</v>
+      </c>
+      <c r="H121" t="s">
+        <v>47</v>
+      </c>
+      <c r="I121" t="s">
+        <v>747</v>
+      </c>
+      <c r="J121" t="s">
+        <v>748</v>
+      </c>
+      <c r="K121" t="s">
+        <v>749</v>
+      </c>
+      <c r="L121" t="s">
+        <v>750</v>
+      </c>
+      <c r="M121" t="n">
+        <v>5</v>
+      </c>
+      <c r="N121" t="s">
+        <v>734</v>
+      </c>
+      <c r="O121" t="s">
+        <v>160</v>
+      </c>
+      <c r="P121" t="s"/>
+      <c r="Q121" t="s"/>
+      <c r="R121" t="s"/>
+      <c r="S121" t="s"/>
+      <c r="T121" t="s"/>
+      <c r="U121" t="s"/>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
+      <c r="W121" t="s"/>
+      <c r="X121" t="s"/>
+      <c r="Y121" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B122" t="s"/>
+      <c r="C122" t="s"/>
+      <c r="D122" t="n">
+        <v>121</v>
+      </c>
+      <c r="E122" t="s">
+        <v>44</v>
+      </c>
+      <c r="F122" t="s">
+        <v>752</v>
+      </c>
+      <c r="G122" t="s">
+        <v>46</v>
+      </c>
+      <c r="H122" t="s">
+        <v>47</v>
+      </c>
+      <c r="I122" t="s">
+        <v>753</v>
+      </c>
+      <c r="J122" t="s">
+        <v>754</v>
+      </c>
+      <c r="K122" t="s">
+        <v>755</v>
+      </c>
+      <c r="L122" t="s">
+        <v>756</v>
+      </c>
+      <c r="M122" t="n">
+        <v>5</v>
+      </c>
+      <c r="N122" t="s">
+        <v>734</v>
+      </c>
+      <c r="O122" t="s">
+        <v>98</v>
+      </c>
+      <c r="P122" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q122" t="s"/>
+      <c r="R122" t="s"/>
+      <c r="S122" t="n">
+        <v>5</v>
+      </c>
+      <c r="T122" t="s"/>
+      <c r="U122" t="n">
+        <v>5</v>
+      </c>
+      <c r="V122" t="n">
+        <v>0</v>
+      </c>
+      <c r="W122" t="s"/>
+      <c r="X122" t="s"/>
+      <c r="Y122" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B123" t="s"/>
+      <c r="C123" t="s"/>
+      <c r="D123" t="n">
+        <v>122</v>
+      </c>
+      <c r="E123" t="s">
+        <v>44</v>
+      </c>
+      <c r="F123" t="s">
+        <v>757</v>
+      </c>
+      <c r="G123" t="s">
+        <v>46</v>
+      </c>
+      <c r="H123" t="s">
+        <v>47</v>
+      </c>
+      <c r="I123" t="s">
+        <v>758</v>
+      </c>
+      <c r="J123" t="s">
+        <v>759</v>
+      </c>
+      <c r="K123" t="s">
+        <v>760</v>
+      </c>
+      <c r="L123" t="s">
+        <v>761</v>
+      </c>
+      <c r="M123" t="n">
+        <v>5</v>
+      </c>
+      <c r="N123" t="s">
+        <v>734</v>
+      </c>
+      <c r="O123" t="s">
+        <v>98</v>
+      </c>
+      <c r="P123" t="s"/>
+      <c r="Q123" t="s"/>
+      <c r="R123" t="n">
+        <v>5</v>
+      </c>
+      <c r="S123" t="n">
+        <v>5</v>
+      </c>
+      <c r="T123" t="s"/>
+      <c r="U123" t="n">
+        <v>5</v>
+      </c>
+      <c r="V123" t="n">
+        <v>0</v>
+      </c>
+      <c r="W123" t="s"/>
+      <c r="X123" t="s"/>
+      <c r="Y123" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B124" t="s"/>
+      <c r="C124" t="s"/>
+      <c r="D124" t="n">
+        <v>123</v>
+      </c>
+      <c r="E124" t="s">
+        <v>44</v>
+      </c>
+      <c r="F124" t="s">
+        <v>762</v>
+      </c>
+      <c r="G124" t="s">
+        <v>46</v>
+      </c>
+      <c r="H124" t="s">
+        <v>47</v>
+      </c>
+      <c r="I124" t="s">
+        <v>763</v>
+      </c>
+      <c r="J124" t="s">
+        <v>764</v>
+      </c>
+      <c r="K124" t="s">
+        <v>765</v>
+      </c>
+      <c r="L124" t="s">
+        <v>766</v>
+      </c>
+      <c r="M124" t="n">
+        <v>4</v>
+      </c>
+      <c r="N124" t="s">
+        <v>767</v>
+      </c>
+      <c r="O124" t="s">
+        <v>98</v>
+      </c>
+      <c r="P124" t="s"/>
+      <c r="Q124" t="s"/>
+      <c r="R124" t="n">
+        <v>5</v>
+      </c>
+      <c r="S124" t="n">
+        <v>4</v>
+      </c>
+      <c r="T124" t="s"/>
+      <c r="U124" t="n">
+        <v>4</v>
+      </c>
+      <c r="V124" t="n">
+        <v>0</v>
+      </c>
+      <c r="W124" t="s"/>
+      <c r="X124" t="s"/>
+      <c r="Y124" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>32590</v>
+      </c>
+      <c r="B125" t="s"/>
+      <c r="C125" t="s"/>
+      <c r="D125" t="n">
+        <v>124</v>
+      </c>
+      <c r="E125" t="s">
+        <v>44</v>
+      </c>
+      <c r="F125" t="s">
+        <v>769</v>
+      </c>
+      <c r="G125" t="s">
+        <v>46</v>
+      </c>
+      <c r="H125" t="s">
+        <v>47</v>
+      </c>
+      <c r="I125" t="s">
+        <v>770</v>
+      </c>
+      <c r="J125" t="s">
+        <v>771</v>
+      </c>
+      <c r="K125" t="s">
+        <v>772</v>
+      </c>
+      <c r="L125" t="s">
+        <v>773</v>
+      </c>
+      <c r="M125" t="n">
+        <v>4</v>
+      </c>
+      <c r="N125" t="s">
+        <v>774</v>
+      </c>
+      <c r="O125" t="s">
+        <v>160</v>
+      </c>
+      <c r="P125" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q125" t="s"/>
+      <c r="R125" t="n">
+        <v>3</v>
+      </c>
+      <c r="S125" t="s"/>
+      <c r="T125" t="s"/>
+      <c r="U125" t="n">
+        <v>4</v>
+      </c>
+      <c r="V125" t="n">
+        <v>0</v>
+      </c>
+      <c r="W125" t="s"/>
+      <c r="X125" t="s"/>
+      <c r="Y125" t="s">
+        <v>773</v>
       </c>
     </row>
   </sheetData>
